--- a/SERVER/excel/POSITION-EMPLOYEE-TEMPLATED-FULL.xlsx
+++ b/SERVER/excel/POSITION-EMPLOYEE-TEMPLATED-FULL.xlsx
@@ -5116,7 +5116,7 @@
     <numFmt numFmtId="164" formatCode="m-d"/>
     <numFmt numFmtId="165" formatCode="mmm d, yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5127,6 +5127,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5232,7 +5238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5246,23 +5252,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5273,13 +5270,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -5291,64 +5297,61 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5730,7 +5733,7 @@
       <c r="B2" s="11"/>
       <c r="C2" s="31"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
@@ -5767,7 +5770,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="31"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="11" t="s">
         <v>52</v>
       </c>
@@ -5804,7 +5807,7 @@
       <c r="B4" s="11"/>
       <c r="C4" s="31"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="11" t="s">
         <v>923</v>
       </c>
@@ -5841,7 +5844,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="31"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="11" t="s">
         <v>1193</v>
       </c>
@@ -5878,7 +5881,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="31"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="11" t="s">
         <v>828</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="31"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="11" t="s">
         <v>1193</v>
       </c>
@@ -5952,7 +5955,7 @@
       <c r="B8" s="11"/>
       <c r="C8" s="31"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="11" t="s">
         <v>923</v>
       </c>
@@ -5989,7 +5992,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="31"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="11" t="s">
         <v>282</v>
       </c>
@@ -6026,7 +6029,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="31"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="11" t="s">
         <v>315</v>
       </c>
@@ -6065,7 +6068,7 @@
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="11" t="s">
         <v>282</v>
       </c>
@@ -6102,7 +6105,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="31"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="11" t="s">
         <v>1202</v>
       </c>
@@ -6139,7 +6142,7 @@
       <c r="B13" s="11"/>
       <c r="C13" s="31"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
         <v>315</v>
       </c>
@@ -6176,7 +6179,7 @@
       <c r="B14" s="11"/>
       <c r="C14" s="31"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="11" t="s">
         <v>282</v>
       </c>
@@ -6213,7 +6216,7 @@
       <c r="B15" s="11"/>
       <c r="C15" s="31"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="11" t="s">
         <v>1206</v>
       </c>
@@ -6252,7 +6255,7 @@
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="11" t="s">
         <v>282</v>
       </c>
@@ -6289,7 +6292,7 @@
       <c r="B17" s="11"/>
       <c r="C17" s="31"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="11" t="s">
         <v>1209</v>
       </c>
@@ -6326,7 +6329,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="31"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="11" t="s">
         <v>282</v>
       </c>
@@ -6363,7 +6366,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="31"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="11" t="s">
         <v>949</v>
       </c>
@@ -6402,7 +6405,7 @@
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="11" t="s">
         <v>282</v>
       </c>
@@ -6439,7 +6442,7 @@
       <c r="B21" s="11"/>
       <c r="C21" s="31"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="11" t="s">
         <v>1193</v>
       </c>
@@ -6478,7 +6481,7 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="11" t="s">
         <v>282</v>
       </c>
@@ -6515,7 +6518,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="31"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="11" t="s">
         <v>282</v>
       </c>
@@ -6552,7 +6555,7 @@
       <c r="B24" s="11"/>
       <c r="C24" s="31"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="11" t="s">
         <v>75</v>
       </c>
@@ -6589,7 +6592,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="31"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="11" t="s">
         <v>1218</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="31"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="11" t="s">
         <v>282</v>
       </c>
@@ -6663,7 +6666,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="31"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="11" t="s">
         <v>265</v>
       </c>
@@ -6700,7 +6703,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="31"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="11" t="s">
         <v>282</v>
       </c>
@@ -6737,7 +6740,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="31"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="11" t="s">
         <v>1223</v>
       </c>
@@ -6774,7 +6777,7 @@
       <c r="B30" s="11"/>
       <c r="C30" s="31"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="11" t="s">
         <v>1223</v>
       </c>
@@ -6811,7 +6814,7 @@
       <c r="B31" s="11"/>
       <c r="C31" s="31"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="11" t="s">
         <v>235</v>
       </c>
@@ -6848,7 +6851,7 @@
       <c r="B32" s="11"/>
       <c r="C32" s="31"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="11" t="s">
         <v>52</v>
       </c>
@@ -6885,7 +6888,7 @@
       <c r="B33" s="11"/>
       <c r="C33" s="31"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="11" t="s">
         <v>923</v>
       </c>
@@ -6922,7 +6925,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="31"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="11" t="s">
         <v>1229</v>
       </c>
@@ -6959,7 +6962,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="11" t="s">
         <v>1231</v>
       </c>
@@ -6996,7 +6999,7 @@
       <c r="B36" s="11"/>
       <c r="C36" s="31"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="11" t="s">
         <v>923</v>
       </c>
@@ -7033,7 +7036,7 @@
       <c r="B37" s="11"/>
       <c r="C37" s="31"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="11" t="s">
         <v>52</v>
       </c>
@@ -7070,7 +7073,7 @@
       <c r="B38" s="11"/>
       <c r="C38" s="31"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="11" t="s">
         <v>1231</v>
       </c>
@@ -7107,7 +7110,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="31"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="11" t="s">
         <v>81</v>
       </c>
@@ -7144,7 +7147,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="31"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="11" t="s">
         <v>1237</v>
       </c>
@@ -7183,7 +7186,7 @@
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="11" t="s">
         <v>1193</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="11" t="s">
         <v>1240</v>
       </c>
@@ -7263,7 +7266,7 @@
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="11" t="s">
         <v>1242</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>115</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="11" t="s">
         <v>1244</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>874</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="11" t="s">
         <v>52</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="11" t="s">
         <v>1247</v>
       </c>
@@ -7427,7 +7430,7 @@
         <v>115</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="11" t="s">
         <v>1240</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>1250</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="11" t="s">
         <v>143</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>115</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="11" t="s">
         <v>47</v>
       </c>
@@ -7550,7 +7553,7 @@
         <v>115</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="11" t="s">
         <v>81</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>1250</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="11" t="s">
         <v>1229</v>
       </c>
@@ -7630,7 +7633,7 @@
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="11" t="s">
         <v>1242</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>115</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="11" t="s">
         <v>1256</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>115</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="11" t="s">
         <v>120</v>
       </c>
@@ -7751,7 +7754,7 @@
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="11" t="s">
         <v>1047</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>115</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="11" t="s">
         <v>1260</v>
       </c>
@@ -7831,7 +7834,7 @@
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="11" t="s">
         <v>1262</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>115</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="11" t="s">
         <v>1240</v>
       </c>
@@ -7911,7 +7914,7 @@
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="11" t="s">
         <v>1266</v>
       </c>
@@ -7950,7 +7953,7 @@
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="11" t="s">
         <v>1268</v>
       </c>
@@ -7989,7 +7992,7 @@
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="11" t="s">
         <v>1270</v>
       </c>
@@ -8028,7 +8031,7 @@
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="11" t="s">
         <v>1268</v>
       </c>
@@ -8067,7 +8070,7 @@
       </c>
       <c r="C63" s="31"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="11" t="s">
         <v>1274</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>1276</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="11" t="s">
         <v>1277</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>97</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="11" t="s">
         <v>107</v>
       </c>
@@ -8190,7 +8193,7 @@
         <v>97</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="11" t="s">
         <v>1229</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>874</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="11" t="s">
         <v>1281</v>
       </c>
@@ -8268,7 +8271,7 @@
       <c r="B68" s="11"/>
       <c r="C68" s="31"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="11" t="s">
         <v>1283</v>
       </c>
@@ -8305,7 +8308,7 @@
       <c r="B69" s="11"/>
       <c r="C69" s="31"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="11" t="s">
         <v>1285</v>
       </c>
@@ -8342,7 +8345,7 @@
       <c r="B70" s="11"/>
       <c r="C70" s="31"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="11" t="s">
         <v>44</v>
       </c>
@@ -8379,7 +8382,7 @@
       <c r="B71" s="11"/>
       <c r="C71" s="31"/>
       <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="11" t="s">
         <v>1288</v>
       </c>
@@ -8416,7 +8419,7 @@
       <c r="B72" s="11"/>
       <c r="C72" s="31"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="11" t="s">
         <v>1290</v>
       </c>
@@ -8453,7 +8456,7 @@
       <c r="B73" s="11"/>
       <c r="C73" s="31"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="11" t="s">
         <v>1292</v>
       </c>
@@ -8490,7 +8493,7 @@
       <c r="B74" s="11"/>
       <c r="C74" s="31"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="11" t="s">
         <v>219</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>20</v>
       </c>
       <c r="M74" s="11"/>
-      <c r="N74" s="38">
+      <c r="N74" s="37">
         <v>905216</v>
       </c>
       <c r="O74" s="11" t="s">
@@ -8527,7 +8530,7 @@
       <c r="B75" s="11"/>
       <c r="C75" s="31"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="11" t="s">
         <v>81</v>
       </c>
@@ -8564,7 +8567,7 @@
       <c r="B76" s="11"/>
       <c r="C76" s="31"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="11" t="s">
         <v>1283</v>
       </c>
@@ -8601,7 +8604,7 @@
       <c r="B77" s="11"/>
       <c r="C77" s="31"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="11" t="s">
         <v>1297</v>
       </c>
@@ -8638,7 +8641,7 @@
       <c r="B78" s="11"/>
       <c r="C78" s="31"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="11" t="s">
         <v>1299</v>
       </c>
@@ -8675,7 +8678,7 @@
       <c r="B79" s="11"/>
       <c r="C79" s="31"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
+      <c r="E79" s="13"/>
       <c r="F79" s="11" t="s">
         <v>923</v>
       </c>
@@ -8712,7 +8715,7 @@
       <c r="B80" s="11"/>
       <c r="C80" s="31"/>
       <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="11" t="s">
         <v>216</v>
       </c>
@@ -8751,7 +8754,7 @@
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="11" t="s">
         <v>1223</v>
       </c>
@@ -8790,7 +8793,7 @@
       </c>
       <c r="C82" s="31"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="11" t="s">
         <v>235</v>
       </c>
@@ -8829,7 +8832,7 @@
       </c>
       <c r="C83" s="31"/>
       <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="11" t="s">
         <v>179</v>
       </c>
@@ -8868,7 +8871,7 @@
       </c>
       <c r="C84" s="31"/>
       <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="11" t="s">
         <v>171</v>
       </c>
@@ -8907,7 +8910,7 @@
       </c>
       <c r="C85" s="31"/>
       <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="11" t="s">
         <v>171</v>
       </c>
@@ -8946,7 +8949,7 @@
       </c>
       <c r="C86" s="31"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="11" t="s">
         <v>171</v>
       </c>
@@ -8985,7 +8988,7 @@
       </c>
       <c r="C87" s="31"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
+      <c r="E87" s="13"/>
       <c r="F87" s="11" t="s">
         <v>171</v>
       </c>
@@ -9024,7 +9027,7 @@
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
+      <c r="E88" s="13"/>
       <c r="F88" s="11" t="s">
         <v>179</v>
       </c>
@@ -9063,7 +9066,7 @@
       </c>
       <c r="C89" s="31"/>
       <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
+      <c r="E89" s="13"/>
       <c r="F89" s="11" t="s">
         <v>235</v>
       </c>
@@ -9102,7 +9105,7 @@
       </c>
       <c r="C90" s="31"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
+      <c r="E90" s="13"/>
       <c r="F90" s="11" t="s">
         <v>171</v>
       </c>
@@ -9141,7 +9144,7 @@
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
-      <c r="E91" s="12"/>
+      <c r="E91" s="13"/>
       <c r="F91" s="11" t="s">
         <v>179</v>
       </c>
@@ -9180,7 +9183,7 @@
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="11"/>
-      <c r="E92" s="12"/>
+      <c r="E92" s="13"/>
       <c r="F92" s="11" t="s">
         <v>1315</v>
       </c>
@@ -9219,7 +9222,7 @@
       </c>
       <c r="C93" s="31"/>
       <c r="D93" s="11"/>
-      <c r="E93" s="12"/>
+      <c r="E93" s="13"/>
       <c r="F93" s="11" t="s">
         <v>179</v>
       </c>
@@ -9258,7 +9261,7 @@
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="12"/>
+      <c r="E94" s="13"/>
       <c r="F94" s="11" t="s">
         <v>179</v>
       </c>
@@ -9297,7 +9300,7 @@
       </c>
       <c r="C95" s="31"/>
       <c r="D95" s="11"/>
-      <c r="E95" s="12"/>
+      <c r="E95" s="13"/>
       <c r="F95" s="11" t="s">
         <v>179</v>
       </c>
@@ -9336,7 +9339,7 @@
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="11"/>
-      <c r="E96" s="12"/>
+      <c r="E96" s="13"/>
       <c r="F96" s="11" t="s">
         <v>179</v>
       </c>
@@ -9375,7 +9378,7 @@
       </c>
       <c r="C97" s="31"/>
       <c r="D97" s="11"/>
-      <c r="E97" s="12"/>
+      <c r="E97" s="13"/>
       <c r="F97" s="11" t="s">
         <v>1124</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>606</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
+      <c r="E98" s="13"/>
       <c r="F98" s="11" t="s">
         <v>620</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>606</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="12"/>
+      <c r="E99" s="13"/>
       <c r="F99" s="11" t="s">
         <v>1324</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>630</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="12"/>
+      <c r="E100" s="13"/>
       <c r="F100" s="11" t="s">
         <v>1324</v>
       </c>
@@ -9537,7 +9540,7 @@
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
-      <c r="E101" s="12"/>
+      <c r="E101" s="13"/>
       <c r="F101" s="11" t="s">
         <v>611</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>630</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="12"/>
+      <c r="E102" s="13"/>
       <c r="F102" s="11" t="s">
         <v>620</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>647</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="12"/>
+      <c r="E103" s="13"/>
       <c r="F103" s="11" t="s">
         <v>620</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>647</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="12"/>
+      <c r="E104" s="13"/>
       <c r="F104" s="11" t="s">
         <v>614</v>
       </c>
@@ -9701,7 +9704,7 @@
         <v>630</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="12"/>
+      <c r="E105" s="13"/>
       <c r="F105" s="11" t="s">
         <v>611</v>
       </c>
@@ -9740,7 +9743,7 @@
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
-      <c r="E106" s="12"/>
+      <c r="E106" s="13"/>
       <c r="F106" s="11" t="s">
         <v>707</v>
       </c>
@@ -9779,7 +9782,7 @@
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="12"/>
+      <c r="E107" s="13"/>
       <c r="F107" s="11" t="s">
         <v>614</v>
       </c>
@@ -9818,7 +9821,7 @@
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="12"/>
+      <c r="E108" s="13"/>
       <c r="F108" s="11" t="s">
         <v>707</v>
       </c>
@@ -9857,7 +9860,7 @@
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
-      <c r="E109" s="12"/>
+      <c r="E109" s="13"/>
       <c r="F109" s="11" t="s">
         <v>620</v>
       </c>
@@ -9896,7 +9899,7 @@
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="12"/>
+      <c r="E110" s="13"/>
       <c r="F110" s="11" t="s">
         <v>611</v>
       </c>
@@ -9935,7 +9938,7 @@
       </c>
       <c r="C111" s="31"/>
       <c r="D111" s="11"/>
-      <c r="E111" s="12"/>
+      <c r="E111" s="13"/>
       <c r="F111" s="11" t="s">
         <v>620</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>630</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="12"/>
+      <c r="E112" s="13"/>
       <c r="F112" s="11" t="s">
         <v>620</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>647</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="12"/>
+      <c r="E113" s="13"/>
       <c r="F113" s="11" t="s">
         <v>614</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>630</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="12"/>
+      <c r="E114" s="13"/>
       <c r="F114" s="11" t="s">
         <v>1340</v>
       </c>
@@ -10097,7 +10100,7 @@
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
-      <c r="E115" s="12"/>
+      <c r="E115" s="13"/>
       <c r="F115" s="11" t="s">
         <v>695</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>686</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="12"/>
+      <c r="E116" s="13"/>
       <c r="F116" s="11" t="s">
         <v>620</v>
       </c>
@@ -10177,7 +10180,7 @@
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
-      <c r="E117" s="12"/>
+      <c r="E117" s="13"/>
       <c r="F117" s="11" t="s">
         <v>695</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>20</v>
       </c>
       <c r="M117" s="11"/>
-      <c r="N117" s="39">
+      <c r="N117" s="38">
         <v>837117</v>
       </c>
       <c r="O117" s="11" t="s">
@@ -10218,7 +10221,7 @@
         <v>874</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="12"/>
+      <c r="E118" s="13"/>
       <c r="F118" s="11" t="s">
         <v>1124</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>686</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="12"/>
+      <c r="E119" s="13"/>
       <c r="F119" s="11" t="s">
         <v>695</v>
       </c>
@@ -10298,7 +10301,7 @@
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
-      <c r="E120" s="12"/>
+      <c r="E120" s="13"/>
       <c r="F120" s="11" t="s">
         <v>1119</v>
       </c>
@@ -10337,7 +10340,7 @@
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="12"/>
+      <c r="E121" s="13"/>
       <c r="F121" s="11" t="s">
         <v>1124</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>729</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="12"/>
+      <c r="E122" s="13"/>
       <c r="F122" s="11" t="s">
         <v>1349</v>
       </c>
@@ -10417,7 +10420,7 @@
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="12"/>
+      <c r="E123" s="13"/>
       <c r="F123" s="11" t="s">
         <v>1349</v>
       </c>
@@ -10456,7 +10459,7 @@
       </c>
       <c r="C124" s="31"/>
       <c r="D124" s="11"/>
-      <c r="E124" s="12"/>
+      <c r="E124" s="13"/>
       <c r="F124" s="11" t="s">
         <v>1124</v>
       </c>
@@ -10495,7 +10498,7 @@
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
-      <c r="E125" s="12"/>
+      <c r="E125" s="13"/>
       <c r="F125" s="11" t="s">
         <v>728</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>20</v>
       </c>
       <c r="M125" s="11"/>
-      <c r="N125" s="39">
+      <c r="N125" s="38">
         <v>707337</v>
       </c>
       <c r="O125" s="11" t="s">
@@ -10534,7 +10537,7 @@
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
-      <c r="E126" s="12"/>
+      <c r="E126" s="13"/>
       <c r="F126" s="11" t="s">
         <v>1354</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>20</v>
       </c>
       <c r="M126" s="11"/>
-      <c r="N126" s="39">
+      <c r="N126" s="38">
         <v>572288</v>
       </c>
       <c r="O126" s="11" t="s">
@@ -10573,7 +10576,7 @@
       </c>
       <c r="C127" s="31"/>
       <c r="D127" s="11"/>
-      <c r="E127" s="12"/>
+      <c r="E127" s="13"/>
       <c r="F127" s="11" t="s">
         <v>1356</v>
       </c>
@@ -10612,7 +10615,7 @@
       </c>
       <c r="C128" s="31"/>
       <c r="D128" s="11"/>
-      <c r="E128" s="12"/>
+      <c r="E128" s="13"/>
       <c r="F128" s="11" t="s">
         <v>1223</v>
       </c>
@@ -10651,7 +10654,7 @@
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
-      <c r="E129" s="12"/>
+      <c r="E129" s="13"/>
       <c r="F129" s="11" t="s">
         <v>1193</v>
       </c>
@@ -10690,7 +10693,7 @@
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="11"/>
-      <c r="E130" s="12"/>
+      <c r="E130" s="13"/>
       <c r="F130" s="11" t="s">
         <v>1117</v>
       </c>
@@ -10729,7 +10732,7 @@
       </c>
       <c r="C131" s="31"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="12"/>
+      <c r="E131" s="13"/>
       <c r="F131" s="11" t="s">
         <v>1361</v>
       </c>
@@ -10768,7 +10771,7 @@
       </c>
       <c r="C132" s="31"/>
       <c r="D132" s="11"/>
-      <c r="E132" s="12"/>
+      <c r="E132" s="13"/>
       <c r="F132" s="11" t="s">
         <v>1361</v>
       </c>
@@ -10807,7 +10810,7 @@
       </c>
       <c r="C133" s="31"/>
       <c r="D133" s="11"/>
-      <c r="E133" s="12"/>
+      <c r="E133" s="13"/>
       <c r="F133" s="11" t="s">
         <v>52</v>
       </c>
@@ -10846,7 +10849,7 @@
       </c>
       <c r="C134" s="31"/>
       <c r="D134" s="11"/>
-      <c r="E134" s="12"/>
+      <c r="E134" s="13"/>
       <c r="F134" s="11" t="s">
         <v>760</v>
       </c>
@@ -10885,7 +10888,7 @@
       </c>
       <c r="C135" s="31"/>
       <c r="D135" s="11"/>
-      <c r="E135" s="12"/>
+      <c r="E135" s="13"/>
       <c r="F135" s="11" t="s">
         <v>745</v>
       </c>
@@ -10924,7 +10927,7 @@
       </c>
       <c r="C136" s="31"/>
       <c r="D136" s="11"/>
-      <c r="E136" s="12"/>
+      <c r="E136" s="13"/>
       <c r="F136" s="11" t="s">
         <v>1367</v>
       </c>
@@ -10963,7 +10966,7 @@
       </c>
       <c r="C137" s="31"/>
       <c r="D137" s="11"/>
-      <c r="E137" s="12"/>
+      <c r="E137" s="13"/>
       <c r="F137" s="11" t="s">
         <v>1369</v>
       </c>
@@ -11002,7 +11005,7 @@
       </c>
       <c r="C138" s="31"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="12"/>
+      <c r="E138" s="13"/>
       <c r="F138" s="11" t="s">
         <v>957</v>
       </c>
@@ -11041,7 +11044,7 @@
       </c>
       <c r="C139" s="31"/>
       <c r="D139" s="11"/>
-      <c r="E139" s="12"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="11" t="s">
         <v>1367</v>
       </c>
@@ -11080,7 +11083,7 @@
       </c>
       <c r="C140" s="31"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="12"/>
+      <c r="E140" s="13"/>
       <c r="F140" s="11" t="s">
         <v>957</v>
       </c>
@@ -11119,7 +11122,7 @@
       </c>
       <c r="C141" s="31"/>
       <c r="D141" s="11"/>
-      <c r="E141" s="12"/>
+      <c r="E141" s="13"/>
       <c r="F141" s="11" t="s">
         <v>1374</v>
       </c>
@@ -11158,7 +11161,7 @@
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="12"/>
+      <c r="E142" s="13"/>
       <c r="F142" s="11" t="s">
         <v>957</v>
       </c>
@@ -11197,7 +11200,7 @@
       </c>
       <c r="C143" s="31"/>
       <c r="D143" s="11"/>
-      <c r="E143" s="12"/>
+      <c r="E143" s="13"/>
       <c r="F143" s="11" t="s">
         <v>1367</v>
       </c>
@@ -11236,7 +11239,7 @@
       </c>
       <c r="C144" s="31"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="12"/>
+      <c r="E144" s="13"/>
       <c r="F144" s="11" t="s">
         <v>957</v>
       </c>
@@ -11275,7 +11278,7 @@
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="11"/>
-      <c r="E145" s="12"/>
+      <c r="E145" s="13"/>
       <c r="F145" s="11" t="s">
         <v>1379</v>
       </c>
@@ -11314,7 +11317,7 @@
       </c>
       <c r="C146" s="31"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="12"/>
+      <c r="E146" s="13"/>
       <c r="F146" s="11" t="s">
         <v>1381</v>
       </c>
@@ -11353,7 +11356,7 @@
       </c>
       <c r="C147" s="31"/>
       <c r="D147" s="11"/>
-      <c r="E147" s="12"/>
+      <c r="E147" s="13"/>
       <c r="F147" s="11" t="s">
         <v>81</v>
       </c>
@@ -11392,7 +11395,7 @@
       </c>
       <c r="C148" s="31"/>
       <c r="D148" s="11"/>
-      <c r="E148" s="12"/>
+      <c r="E148" s="13"/>
       <c r="F148" s="11" t="s">
         <v>1381</v>
       </c>
@@ -11431,7 +11434,7 @@
       </c>
       <c r="C149" s="31"/>
       <c r="D149" s="11"/>
-      <c r="E149" s="12"/>
+      <c r="E149" s="13"/>
       <c r="F149" s="11" t="s">
         <v>1367</v>
       </c>
@@ -11470,7 +11473,7 @@
       </c>
       <c r="C150" s="31"/>
       <c r="D150" s="11"/>
-      <c r="E150" s="12"/>
+      <c r="E150" s="13"/>
       <c r="F150" s="11" t="s">
         <v>957</v>
       </c>
@@ -11511,7 +11514,7 @@
         <v>985</v>
       </c>
       <c r="D151" s="11"/>
-      <c r="E151" s="12"/>
+      <c r="E151" s="13"/>
       <c r="F151" s="11" t="s">
         <v>1387</v>
       </c>
@@ -11552,7 +11555,7 @@
         <v>918</v>
       </c>
       <c r="D152" s="11"/>
-      <c r="E152" s="12"/>
+      <c r="E152" s="13"/>
       <c r="F152" s="11" t="s">
         <v>923</v>
       </c>
@@ -11591,7 +11594,7 @@
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
-      <c r="E153" s="12"/>
+      <c r="E153" s="13"/>
       <c r="F153" s="11" t="s">
         <v>1390</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>918</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="12"/>
+      <c r="E154" s="13"/>
       <c r="F154" s="11" t="s">
         <v>923</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>918</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="12"/>
+      <c r="E155" s="13"/>
       <c r="F155" s="11" t="s">
         <v>923</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>985</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="12"/>
+      <c r="E156" s="13"/>
       <c r="F156" s="11" t="s">
         <v>986</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>918</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="12"/>
+      <c r="E157" s="13"/>
       <c r="F157" s="11" t="s">
         <v>923</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>878</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="12"/>
+      <c r="E158" s="13"/>
       <c r="F158" s="11" t="s">
         <v>894</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>878</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="12"/>
+      <c r="E159" s="13"/>
       <c r="F159" s="11" t="s">
         <v>1397</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>878</v>
       </c>
       <c r="D160" s="11"/>
-      <c r="E160" s="12"/>
+      <c r="E160" s="13"/>
       <c r="F160" s="11" t="s">
         <v>897</v>
       </c>
@@ -11919,7 +11922,7 @@
         <v>1400</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="12"/>
+      <c r="E161" s="13"/>
       <c r="F161" s="11" t="s">
         <v>1401</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>918</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="12"/>
+      <c r="E162" s="13"/>
       <c r="F162" s="11" t="s">
         <v>1403</v>
       </c>
@@ -12001,7 +12004,7 @@
         <v>918</v>
       </c>
       <c r="D163" s="11"/>
-      <c r="E163" s="12"/>
+      <c r="E163" s="13"/>
       <c r="F163" s="11" t="s">
         <v>923</v>
       </c>
@@ -12042,7 +12045,7 @@
         <v>918</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="12"/>
+      <c r="E164" s="13"/>
       <c r="F164" s="11" t="s">
         <v>923</v>
       </c>
@@ -12083,7 +12086,7 @@
         <v>918</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="12"/>
+      <c r="E165" s="13"/>
       <c r="F165" s="11" t="s">
         <v>923</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>878</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="12"/>
+      <c r="E166" s="13"/>
       <c r="F166" s="11" t="s">
         <v>52</v>
       </c>
@@ -12165,7 +12168,7 @@
         <v>918</v>
       </c>
       <c r="D167" s="11"/>
-      <c r="E167" s="12"/>
+      <c r="E167" s="13"/>
       <c r="F167" s="11" t="s">
         <v>923</v>
       </c>
@@ -12206,7 +12209,7 @@
         <v>918</v>
       </c>
       <c r="D168" s="11"/>
-      <c r="E168" s="12"/>
+      <c r="E168" s="13"/>
       <c r="F168" s="11" t="s">
         <v>937</v>
       </c>
@@ -12247,7 +12250,7 @@
         <v>1400</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="12"/>
+      <c r="E169" s="13"/>
       <c r="F169" s="11" t="s">
         <v>1411</v>
       </c>
@@ -12288,7 +12291,7 @@
         <v>918</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="12"/>
+      <c r="E170" s="13"/>
       <c r="F170" s="11" t="s">
         <v>923</v>
       </c>
@@ -12329,7 +12332,7 @@
         <v>874</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="12"/>
+      <c r="E171" s="13"/>
       <c r="F171" s="11" t="s">
         <v>1414</v>
       </c>
@@ -12370,7 +12373,7 @@
         <v>918</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="12"/>
+      <c r="E172" s="13"/>
       <c r="F172" s="11" t="s">
         <v>923</v>
       </c>
@@ -12411,7 +12414,7 @@
         <v>918</v>
       </c>
       <c r="D173" s="11"/>
-      <c r="E173" s="12"/>
+      <c r="E173" s="13"/>
       <c r="F173" s="11" t="s">
         <v>923</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>899</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="12"/>
+      <c r="E174" s="13"/>
       <c r="F174" s="11" t="s">
         <v>315</v>
       </c>
@@ -12493,7 +12496,7 @@
         <v>918</v>
       </c>
       <c r="D175" s="11"/>
-      <c r="E175" s="12"/>
+      <c r="E175" s="13"/>
       <c r="F175" s="11" t="s">
         <v>923</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>878</v>
       </c>
       <c r="D176" s="11"/>
-      <c r="E176" s="12"/>
+      <c r="E176" s="13"/>
       <c r="F176" s="11" t="s">
         <v>977</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>918</v>
       </c>
       <c r="D177" s="11"/>
-      <c r="E177" s="12"/>
+      <c r="E177" s="13"/>
       <c r="F177" s="11" t="s">
         <v>923</v>
       </c>
@@ -12616,7 +12619,7 @@
         <v>918</v>
       </c>
       <c r="D178" s="11"/>
-      <c r="E178" s="12"/>
+      <c r="E178" s="13"/>
       <c r="F178" s="11" t="s">
         <v>1422</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>918</v>
       </c>
       <c r="D179" s="11"/>
-      <c r="E179" s="12"/>
+      <c r="E179" s="13"/>
       <c r="F179" s="11" t="s">
         <v>923</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>874</v>
       </c>
       <c r="D180" s="11"/>
-      <c r="E180" s="12"/>
+      <c r="E180" s="13"/>
       <c r="F180" s="11" t="s">
         <v>1425</v>
       </c>
@@ -12739,7 +12742,7 @@
         <v>985</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="12"/>
+      <c r="E181" s="13"/>
       <c r="F181" s="11" t="s">
         <v>986</v>
       </c>
@@ -12778,7 +12781,7 @@
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
-      <c r="E182" s="12"/>
+      <c r="E182" s="13"/>
       <c r="F182" s="11" t="s">
         <v>1428</v>
       </c>
@@ -12819,7 +12822,7 @@
         <v>985</v>
       </c>
       <c r="D183" s="11"/>
-      <c r="E183" s="12"/>
+      <c r="E183" s="13"/>
       <c r="F183" s="11" t="s">
         <v>986</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>878</v>
       </c>
       <c r="D184" s="11"/>
-      <c r="E184" s="12"/>
+      <c r="E184" s="13"/>
       <c r="F184" s="11" t="s">
         <v>977</v>
       </c>
@@ -12901,7 +12904,7 @@
         <v>985</v>
       </c>
       <c r="D185" s="11"/>
-      <c r="E185" s="12"/>
+      <c r="E185" s="13"/>
       <c r="F185" s="11" t="s">
         <v>1432</v>
       </c>
@@ -12942,7 +12945,7 @@
         <v>878</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="12"/>
+      <c r="E186" s="13"/>
       <c r="F186" s="11" t="s">
         <v>983</v>
       </c>
@@ -12983,7 +12986,7 @@
         <v>918</v>
       </c>
       <c r="D187" s="11"/>
-      <c r="E187" s="12"/>
+      <c r="E187" s="13"/>
       <c r="F187" s="11" t="s">
         <v>923</v>
       </c>
@@ -13024,7 +13027,7 @@
         <v>918</v>
       </c>
       <c r="D188" s="11"/>
-      <c r="E188" s="12"/>
+      <c r="E188" s="13"/>
       <c r="F188" s="11" t="s">
         <v>923</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>918</v>
       </c>
       <c r="D189" s="11"/>
-      <c r="E189" s="12"/>
+      <c r="E189" s="13"/>
       <c r="F189" s="11" t="s">
         <v>923</v>
       </c>
@@ -13106,7 +13109,7 @@
         <v>899</v>
       </c>
       <c r="D190" s="11"/>
-      <c r="E190" s="12"/>
+      <c r="E190" s="13"/>
       <c r="F190" s="11" t="s">
         <v>1438</v>
       </c>
@@ -13147,7 +13150,7 @@
         <v>918</v>
       </c>
       <c r="D191" s="11"/>
-      <c r="E191" s="12"/>
+      <c r="E191" s="13"/>
       <c r="F191" s="11" t="s">
         <v>923</v>
       </c>
@@ -13188,7 +13191,7 @@
         <v>1400</v>
       </c>
       <c r="D192" s="11"/>
-      <c r="E192" s="12"/>
+      <c r="E192" s="13"/>
       <c r="F192" s="11" t="s">
         <v>1441</v>
       </c>
@@ -13229,7 +13232,7 @@
         <v>874</v>
       </c>
       <c r="D193" s="11"/>
-      <c r="E193" s="12"/>
+      <c r="E193" s="13"/>
       <c r="F193" s="11" t="s">
         <v>1193</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>918</v>
       </c>
       <c r="D194" s="11"/>
-      <c r="E194" s="12"/>
+      <c r="E194" s="13"/>
       <c r="F194" s="11" t="s">
         <v>923</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>878</v>
       </c>
       <c r="D195" s="11"/>
-      <c r="E195" s="12"/>
+      <c r="E195" s="13"/>
       <c r="F195" s="11" t="s">
         <v>1445</v>
       </c>
@@ -13352,7 +13355,7 @@
         <v>878</v>
       </c>
       <c r="D196" s="11"/>
-      <c r="E196" s="12"/>
+      <c r="E196" s="13"/>
       <c r="F196" s="11" t="s">
         <v>1447</v>
       </c>
@@ -13393,7 +13396,7 @@
         <v>918</v>
       </c>
       <c r="D197" s="11"/>
-      <c r="E197" s="12"/>
+      <c r="E197" s="13"/>
       <c r="F197" s="11" t="s">
         <v>923</v>
       </c>
@@ -13434,7 +13437,7 @@
         <v>918</v>
       </c>
       <c r="D198" s="11"/>
-      <c r="E198" s="12"/>
+      <c r="E198" s="13"/>
       <c r="F198" s="11" t="s">
         <v>923</v>
       </c>
@@ -13475,7 +13478,7 @@
         <v>985</v>
       </c>
       <c r="D199" s="11"/>
-      <c r="E199" s="12"/>
+      <c r="E199" s="13"/>
       <c r="F199" s="11" t="s">
         <v>1387</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>878</v>
       </c>
       <c r="D200" s="11"/>
-      <c r="E200" s="12"/>
+      <c r="E200" s="13"/>
       <c r="F200" s="11" t="s">
         <v>977</v>
       </c>
@@ -13557,7 +13560,7 @@
         <v>878</v>
       </c>
       <c r="D201" s="11"/>
-      <c r="E201" s="12"/>
+      <c r="E201" s="13"/>
       <c r="F201" s="11" t="s">
         <v>1453</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>985</v>
       </c>
       <c r="D202" s="11"/>
-      <c r="E202" s="12"/>
+      <c r="E202" s="13"/>
       <c r="F202" s="11" t="s">
         <v>986</v>
       </c>
@@ -13639,7 +13642,7 @@
         <v>918</v>
       </c>
       <c r="D203" s="11"/>
-      <c r="E203" s="12"/>
+      <c r="E203" s="13"/>
       <c r="F203" s="11" t="s">
         <v>923</v>
       </c>
@@ -13680,7 +13683,7 @@
         <v>918</v>
       </c>
       <c r="D204" s="11"/>
-      <c r="E204" s="12"/>
+      <c r="E204" s="13"/>
       <c r="F204" s="11" t="s">
         <v>923</v>
       </c>
@@ -13721,7 +13724,7 @@
         <v>918</v>
       </c>
       <c r="D205" s="11"/>
-      <c r="E205" s="12"/>
+      <c r="E205" s="13"/>
       <c r="F205" s="11" t="s">
         <v>1390</v>
       </c>
@@ -13762,7 +13765,7 @@
         <v>878</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="12"/>
+      <c r="E206" s="13"/>
       <c r="F206" s="11" t="s">
         <v>894</v>
       </c>
@@ -13803,7 +13806,7 @@
         <v>899</v>
       </c>
       <c r="D207" s="11"/>
-      <c r="E207" s="12"/>
+      <c r="E207" s="13"/>
       <c r="F207" s="11" t="s">
         <v>52</v>
       </c>
@@ -13844,7 +13847,7 @@
         <v>918</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="12"/>
+      <c r="E208" s="13"/>
       <c r="F208" s="11" t="s">
         <v>1414</v>
       </c>
@@ -13885,7 +13888,7 @@
         <v>878</v>
       </c>
       <c r="D209" s="11"/>
-      <c r="E209" s="12"/>
+      <c r="E209" s="13"/>
       <c r="F209" s="11" t="s">
         <v>894</v>
       </c>
@@ -13926,7 +13929,7 @@
         <v>985</v>
       </c>
       <c r="D210" s="11"/>
-      <c r="E210" s="12"/>
+      <c r="E210" s="13"/>
       <c r="F210" s="11" t="s">
         <v>1463</v>
       </c>
@@ -13967,7 +13970,7 @@
         <v>985</v>
       </c>
       <c r="D211" s="11"/>
-      <c r="E211" s="12"/>
+      <c r="E211" s="13"/>
       <c r="F211" s="11" t="s">
         <v>986</v>
       </c>
@@ -14006,7 +14009,7 @@
       </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
-      <c r="E212" s="12"/>
+      <c r="E212" s="13"/>
       <c r="F212" s="11" t="s">
         <v>1428</v>
       </c>
@@ -14047,7 +14050,7 @@
         <v>918</v>
       </c>
       <c r="D213" s="11"/>
-      <c r="E213" s="12"/>
+      <c r="E213" s="13"/>
       <c r="F213" s="11" t="s">
         <v>923</v>
       </c>
@@ -14088,7 +14091,7 @@
         <v>985</v>
       </c>
       <c r="D214" s="11"/>
-      <c r="E214" s="12"/>
+      <c r="E214" s="13"/>
       <c r="F214" s="11" t="s">
         <v>1468</v>
       </c>
@@ -14129,7 +14132,7 @@
         <v>899</v>
       </c>
       <c r="D215" s="11"/>
-      <c r="E215" s="12"/>
+      <c r="E215" s="13"/>
       <c r="F215" s="11" t="s">
         <v>1470</v>
       </c>
@@ -14170,7 +14173,7 @@
         <v>899</v>
       </c>
       <c r="D216" s="11"/>
-      <c r="E216" s="12"/>
+      <c r="E216" s="13"/>
       <c r="F216" s="11" t="s">
         <v>916</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>918</v>
       </c>
       <c r="D217" s="11"/>
-      <c r="E217" s="12"/>
+      <c r="E217" s="13"/>
       <c r="F217" s="11" t="s">
         <v>923</v>
       </c>
@@ -14252,7 +14255,7 @@
         <v>918</v>
       </c>
       <c r="D218" s="11"/>
-      <c r="E218" s="12"/>
+      <c r="E218" s="13"/>
       <c r="F218" s="11" t="s">
         <v>923</v>
       </c>
@@ -14293,7 +14296,7 @@
         <v>878</v>
       </c>
       <c r="D219" s="11"/>
-      <c r="E219" s="12"/>
+      <c r="E219" s="13"/>
       <c r="F219" s="11" t="s">
         <v>1447</v>
       </c>
@@ -14334,7 +14337,7 @@
         <v>878</v>
       </c>
       <c r="D220" s="11"/>
-      <c r="E220" s="12"/>
+      <c r="E220" s="13"/>
       <c r="F220" s="11" t="s">
         <v>983</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>918</v>
       </c>
       <c r="D221" s="11"/>
-      <c r="E221" s="12"/>
+      <c r="E221" s="13"/>
       <c r="F221" s="11" t="s">
         <v>923</v>
       </c>
@@ -14416,7 +14419,7 @@
         <v>918</v>
       </c>
       <c r="D222" s="11"/>
-      <c r="E222" s="12"/>
+      <c r="E222" s="13"/>
       <c r="F222" s="11" t="s">
         <v>1403</v>
       </c>
@@ -14457,7 +14460,7 @@
         <v>899</v>
       </c>
       <c r="D223" s="11"/>
-      <c r="E223" s="12"/>
+      <c r="E223" s="13"/>
       <c r="F223" s="11" t="s">
         <v>1470</v>
       </c>
@@ -14498,7 +14501,7 @@
         <v>899</v>
       </c>
       <c r="D224" s="11"/>
-      <c r="E224" s="12"/>
+      <c r="E224" s="13"/>
       <c r="F224" s="11" t="s">
         <v>909</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>918</v>
       </c>
       <c r="D225" s="11"/>
-      <c r="E225" s="12"/>
+      <c r="E225" s="13"/>
       <c r="F225" s="11" t="s">
         <v>1481</v>
       </c>
@@ -14580,7 +14583,7 @@
         <v>985</v>
       </c>
       <c r="D226" s="11"/>
-      <c r="E226" s="12"/>
+      <c r="E226" s="13"/>
       <c r="F226" s="11" t="s">
         <v>52</v>
       </c>
@@ -14621,7 +14624,7 @@
         <v>899</v>
       </c>
       <c r="D227" s="11"/>
-      <c r="E227" s="12"/>
+      <c r="E227" s="13"/>
       <c r="F227" s="11" t="s">
         <v>1470</v>
       </c>
@@ -14660,7 +14663,7 @@
       </c>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
-      <c r="E228" s="12"/>
+      <c r="E228" s="13"/>
       <c r="F228" s="11" t="s">
         <v>923</v>
       </c>
@@ -14701,7 +14704,7 @@
         <v>918</v>
       </c>
       <c r="D229" s="11"/>
-      <c r="E229" s="12"/>
+      <c r="E229" s="13"/>
       <c r="F229" s="11" t="s">
         <v>923</v>
       </c>
@@ -14742,7 +14745,7 @@
         <v>837</v>
       </c>
       <c r="D230" s="11"/>
-      <c r="E230" s="12"/>
+      <c r="E230" s="13"/>
       <c r="F230" s="11" t="s">
         <v>848</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>854</v>
       </c>
       <c r="D231" s="11"/>
-      <c r="E231" s="12"/>
+      <c r="E231" s="13"/>
       <c r="F231" s="11" t="s">
         <v>235</v>
       </c>
@@ -14824,7 +14827,7 @@
         <v>837</v>
       </c>
       <c r="D232" s="11"/>
-      <c r="E232" s="12"/>
+      <c r="E232" s="13"/>
       <c r="F232" s="11" t="s">
         <v>1151</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>874</v>
       </c>
       <c r="D233" s="11"/>
-      <c r="E233" s="12"/>
+      <c r="E233" s="13"/>
       <c r="F233" s="11" t="s">
         <v>52</v>
       </c>
@@ -14906,7 +14909,7 @@
         <v>837</v>
       </c>
       <c r="D234" s="11"/>
-      <c r="E234" s="12"/>
+      <c r="E234" s="13"/>
       <c r="F234" s="11" t="s">
         <v>848</v>
       </c>
@@ -14945,7 +14948,7 @@
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
-      <c r="E235" s="12"/>
+      <c r="E235" s="13"/>
       <c r="F235" s="11" t="s">
         <v>1151</v>
       </c>
@@ -14986,7 +14989,7 @@
         <v>837</v>
       </c>
       <c r="D236" s="11"/>
-      <c r="E236" s="12"/>
+      <c r="E236" s="13"/>
       <c r="F236" s="11" t="s">
         <v>848</v>
       </c>
@@ -15027,7 +15030,7 @@
         <v>854</v>
       </c>
       <c r="D237" s="11"/>
-      <c r="E237" s="12"/>
+      <c r="E237" s="13"/>
       <c r="F237" s="11" t="s">
         <v>1151</v>
       </c>
@@ -15068,7 +15071,7 @@
         <v>854</v>
       </c>
       <c r="D238" s="11"/>
-      <c r="E238" s="12"/>
+      <c r="E238" s="13"/>
       <c r="F238" s="11" t="s">
         <v>1202</v>
       </c>
@@ -15109,7 +15112,7 @@
         <v>837</v>
       </c>
       <c r="D239" s="11"/>
-      <c r="E239" s="12"/>
+      <c r="E239" s="13"/>
       <c r="F239" s="11" t="s">
         <v>1218</v>
       </c>
@@ -15150,7 +15153,7 @@
         <v>854</v>
       </c>
       <c r="D240" s="11"/>
-      <c r="E240" s="12"/>
+      <c r="E240" s="13"/>
       <c r="F240" s="11" t="s">
         <v>265</v>
       </c>
@@ -15191,7 +15194,7 @@
         <v>837</v>
       </c>
       <c r="D241" s="11"/>
-      <c r="E241" s="12"/>
+      <c r="E241" s="13"/>
       <c r="F241" s="11" t="s">
         <v>848</v>
       </c>
@@ -15232,7 +15235,7 @@
         <v>837</v>
       </c>
       <c r="D242" s="11"/>
-      <c r="E242" s="12"/>
+      <c r="E242" s="13"/>
       <c r="F242" s="11" t="s">
         <v>1499</v>
       </c>
@@ -15273,7 +15276,7 @@
         <v>854</v>
       </c>
       <c r="D243" s="11"/>
-      <c r="E243" s="12"/>
+      <c r="E243" s="13"/>
       <c r="F243" s="11" t="s">
         <v>1193</v>
       </c>
@@ -15314,7 +15317,7 @@
         <v>854</v>
       </c>
       <c r="D244" s="11"/>
-      <c r="E244" s="12"/>
+      <c r="E244" s="13"/>
       <c r="F244" s="11" t="s">
         <v>1124</v>
       </c>
@@ -15355,7 +15358,7 @@
         <v>854</v>
       </c>
       <c r="D245" s="11"/>
-      <c r="E245" s="12"/>
+      <c r="E245" s="13"/>
       <c r="F245" s="11" t="s">
         <v>1503</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>837</v>
       </c>
       <c r="D246" s="11"/>
-      <c r="E246" s="12"/>
+      <c r="E246" s="13"/>
       <c r="F246" s="11" t="s">
         <v>1202</v>
       </c>
@@ -15437,7 +15440,7 @@
         <v>854</v>
       </c>
       <c r="D247" s="11"/>
-      <c r="E247" s="12"/>
+      <c r="E247" s="13"/>
       <c r="F247" s="11" t="s">
         <v>858</v>
       </c>
@@ -15478,7 +15481,7 @@
         <v>854</v>
       </c>
       <c r="D248" s="11"/>
-      <c r="E248" s="12"/>
+      <c r="E248" s="13"/>
       <c r="F248" s="11" t="s">
         <v>1507</v>
       </c>
@@ -15519,7 +15522,7 @@
         <v>854</v>
       </c>
       <c r="D249" s="11"/>
-      <c r="E249" s="12"/>
+      <c r="E249" s="13"/>
       <c r="F249" s="11" t="s">
         <v>1503</v>
       </c>
@@ -15560,7 +15563,7 @@
         <v>837</v>
       </c>
       <c r="D250" s="11"/>
-      <c r="E250" s="12"/>
+      <c r="E250" s="13"/>
       <c r="F250" s="11" t="s">
         <v>848</v>
       </c>
@@ -15599,7 +15602,7 @@
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
-      <c r="E251" s="12"/>
+      <c r="E251" s="13"/>
       <c r="F251" s="11" t="s">
         <v>1274</v>
       </c>
@@ -15622,7 +15625,7 @@
         <v>20</v>
       </c>
       <c r="M251" s="11"/>
-      <c r="N251" s="38">
+      <c r="N251" s="37">
         <v>108836</v>
       </c>
       <c r="O251" s="11" t="s">
@@ -15640,7 +15643,7 @@
         <v>764</v>
       </c>
       <c r="D252" s="11"/>
-      <c r="E252" s="12"/>
+      <c r="E252" s="13"/>
       <c r="F252" s="11" t="s">
         <v>1119</v>
       </c>
@@ -15681,7 +15684,7 @@
         <v>764</v>
       </c>
       <c r="D253" s="11"/>
-      <c r="E253" s="12"/>
+      <c r="E253" s="13"/>
       <c r="F253" s="11" t="s">
         <v>1374</v>
       </c>
@@ -15722,7 +15725,7 @@
         <v>781</v>
       </c>
       <c r="D254" s="11"/>
-      <c r="E254" s="12"/>
+      <c r="E254" s="13"/>
       <c r="F254" s="11" t="s">
         <v>779</v>
       </c>
@@ -15745,7 +15748,7 @@
         <v>20</v>
       </c>
       <c r="M254" s="11"/>
-      <c r="N254" s="38">
+      <c r="N254" s="37">
         <v>557385</v>
       </c>
       <c r="O254" s="11" t="s">
@@ -15763,7 +15766,7 @@
         <v>764</v>
       </c>
       <c r="D255" s="11"/>
-      <c r="E255" s="12"/>
+      <c r="E255" s="13"/>
       <c r="F255" s="11" t="s">
         <v>779</v>
       </c>
@@ -15804,7 +15807,7 @@
         <v>764</v>
       </c>
       <c r="D256" s="11"/>
-      <c r="E256" s="12"/>
+      <c r="E256" s="13"/>
       <c r="F256" s="11" t="s">
         <v>771</v>
       </c>
@@ -15845,7 +15848,7 @@
         <v>792</v>
       </c>
       <c r="D257" s="11"/>
-      <c r="E257" s="12"/>
+      <c r="E257" s="13"/>
       <c r="F257" s="11" t="s">
         <v>798</v>
       </c>
@@ -15868,7 +15871,7 @@
         <v>20</v>
       </c>
       <c r="M257" s="11"/>
-      <c r="N257" s="38">
+      <c r="N257" s="37">
         <v>909874</v>
       </c>
       <c r="O257" s="11" t="s">
@@ -15886,7 +15889,7 @@
         <v>764</v>
       </c>
       <c r="D258" s="11"/>
-      <c r="E258" s="12"/>
+      <c r="E258" s="13"/>
       <c r="F258" s="11" t="s">
         <v>771</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>792</v>
       </c>
       <c r="D259" s="11"/>
-      <c r="E259" s="12"/>
+      <c r="E259" s="13"/>
       <c r="F259" s="11" t="s">
         <v>798</v>
       </c>
@@ -15968,7 +15971,7 @@
         <v>781</v>
       </c>
       <c r="D260" s="11"/>
-      <c r="E260" s="12"/>
+      <c r="E260" s="13"/>
       <c r="F260" s="11" t="s">
         <v>776</v>
       </c>
@@ -16009,7 +16012,7 @@
         <v>764</v>
       </c>
       <c r="D261" s="11"/>
-      <c r="E261" s="12"/>
+      <c r="E261" s="13"/>
       <c r="F261" s="11" t="s">
         <v>776</v>
       </c>
@@ -16050,7 +16053,7 @@
         <v>764</v>
       </c>
       <c r="D262" s="11"/>
-      <c r="E262" s="12"/>
+      <c r="E262" s="13"/>
       <c r="F262" s="11" t="s">
         <v>771</v>
       </c>
@@ -16091,7 +16094,7 @@
         <v>764</v>
       </c>
       <c r="D263" s="11"/>
-      <c r="E263" s="12"/>
+      <c r="E263" s="13"/>
       <c r="F263" s="11" t="s">
         <v>771</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>874</v>
       </c>
       <c r="D264" s="11"/>
-      <c r="E264" s="12"/>
+      <c r="E264" s="13"/>
       <c r="F264" s="11" t="s">
         <v>235</v>
       </c>
@@ -16173,7 +16176,7 @@
         <v>804</v>
       </c>
       <c r="D265" s="11"/>
-      <c r="E265" s="12"/>
+      <c r="E265" s="13"/>
       <c r="F265" s="11" t="s">
         <v>1223</v>
       </c>
@@ -16214,7 +16217,7 @@
         <v>792</v>
       </c>
       <c r="D266" s="11"/>
-      <c r="E266" s="12"/>
+      <c r="E266" s="13"/>
       <c r="F266" s="11" t="s">
         <v>265</v>
       </c>
@@ -16255,7 +16258,7 @@
         <v>804</v>
       </c>
       <c r="D267" s="11"/>
-      <c r="E267" s="12"/>
+      <c r="E267" s="13"/>
       <c r="F267" s="11" t="s">
         <v>818</v>
       </c>
@@ -16296,7 +16299,7 @@
         <v>764</v>
       </c>
       <c r="D268" s="11"/>
-      <c r="E268" s="12"/>
+      <c r="E268" s="13"/>
       <c r="F268" s="11" t="s">
         <v>776</v>
       </c>
@@ -16337,7 +16340,7 @@
         <v>781</v>
       </c>
       <c r="D269" s="11"/>
-      <c r="E269" s="12"/>
+      <c r="E269" s="13"/>
       <c r="F269" s="11" t="s">
         <v>828</v>
       </c>
@@ -16376,7 +16379,7 @@
       </c>
       <c r="C270" s="31"/>
       <c r="D270" s="11"/>
-      <c r="E270" s="12"/>
+      <c r="E270" s="13"/>
       <c r="F270" s="11" t="s">
         <v>923</v>
       </c>
@@ -16415,7 +16418,7 @@
       </c>
       <c r="C271" s="31"/>
       <c r="D271" s="11"/>
-      <c r="E271" s="12"/>
+      <c r="E271" s="13"/>
       <c r="F271" s="11" t="s">
         <v>235</v>
       </c>
@@ -16454,7 +16457,7 @@
       </c>
       <c r="C272" s="31"/>
       <c r="D272" s="11"/>
-      <c r="E272" s="12"/>
+      <c r="E272" s="13"/>
       <c r="F272" s="11" t="s">
         <v>1193</v>
       </c>
@@ -16495,7 +16498,7 @@
         <v>1534</v>
       </c>
       <c r="D273" s="11"/>
-      <c r="E273" s="12"/>
+      <c r="E273" s="13"/>
       <c r="F273" s="11" t="s">
         <v>315</v>
       </c>
@@ -16536,7 +16539,7 @@
         <v>394</v>
       </c>
       <c r="D274" s="11"/>
-      <c r="E274" s="12"/>
+      <c r="E274" s="13"/>
       <c r="F274" s="11" t="s">
         <v>288</v>
       </c>
@@ -16577,7 +16580,7 @@
         <v>1534</v>
       </c>
       <c r="D275" s="11"/>
-      <c r="E275" s="12"/>
+      <c r="E275" s="13"/>
       <c r="F275" s="11" t="s">
         <v>288</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>874</v>
       </c>
       <c r="D276" s="11"/>
-      <c r="E276" s="12"/>
+      <c r="E276" s="13"/>
       <c r="F276" s="11" t="s">
         <v>235</v>
       </c>
@@ -16659,7 +16662,7 @@
         <v>394</v>
       </c>
       <c r="D277" s="11"/>
-      <c r="E277" s="12"/>
+      <c r="E277" s="13"/>
       <c r="F277" s="11" t="s">
         <v>315</v>
       </c>
@@ -16700,7 +16703,7 @@
         <v>1534</v>
       </c>
       <c r="D278" s="11"/>
-      <c r="E278" s="12"/>
+      <c r="E278" s="13"/>
       <c r="F278" s="11" t="s">
         <v>288</v>
       </c>
@@ -16741,7 +16744,7 @@
         <v>1541</v>
       </c>
       <c r="D279" s="11"/>
-      <c r="E279" s="12"/>
+      <c r="E279" s="13"/>
       <c r="F279" s="11" t="s">
         <v>923</v>
       </c>
@@ -16782,7 +16785,7 @@
         <v>1543</v>
       </c>
       <c r="D280" s="11"/>
-      <c r="E280" s="12"/>
+      <c r="E280" s="13"/>
       <c r="F280" s="11" t="s">
         <v>949</v>
       </c>
@@ -16823,7 +16826,7 @@
         <v>394</v>
       </c>
       <c r="D281" s="11"/>
-      <c r="E281" s="12"/>
+      <c r="E281" s="13"/>
       <c r="F281" s="11" t="s">
         <v>1545</v>
       </c>
@@ -16864,7 +16867,7 @@
         <v>1534</v>
       </c>
       <c r="D282" s="11"/>
-      <c r="E282" s="12"/>
+      <c r="E282" s="13"/>
       <c r="F282" s="11" t="s">
         <v>315</v>
       </c>
@@ -16905,7 +16908,7 @@
         <v>1543</v>
       </c>
       <c r="D283" s="11"/>
-      <c r="E283" s="12"/>
+      <c r="E283" s="13"/>
       <c r="F283" s="11" t="s">
         <v>949</v>
       </c>
@@ -16946,7 +16949,7 @@
         <v>1543</v>
       </c>
       <c r="D284" s="11"/>
-      <c r="E284" s="12"/>
+      <c r="E284" s="13"/>
       <c r="F284" s="11" t="s">
         <v>949</v>
       </c>
@@ -16987,7 +16990,7 @@
         <v>1543</v>
       </c>
       <c r="D285" s="11"/>
-      <c r="E285" s="12"/>
+      <c r="E285" s="13"/>
       <c r="F285" s="11" t="s">
         <v>288</v>
       </c>
@@ -17028,7 +17031,7 @@
         <v>1543</v>
       </c>
       <c r="D286" s="11"/>
-      <c r="E286" s="12"/>
+      <c r="E286" s="13"/>
       <c r="F286" s="11" t="s">
         <v>949</v>
       </c>
@@ -17069,7 +17072,7 @@
         <v>874</v>
       </c>
       <c r="D287" s="11"/>
-      <c r="E287" s="12"/>
+      <c r="E287" s="13"/>
       <c r="F287" s="11" t="s">
         <v>265</v>
       </c>
@@ -17110,7 +17113,7 @@
         <v>394</v>
       </c>
       <c r="D288" s="11"/>
-      <c r="E288" s="12"/>
+      <c r="E288" s="13"/>
       <c r="F288" s="11" t="s">
         <v>949</v>
       </c>
@@ -17151,7 +17154,7 @@
         <v>394</v>
       </c>
       <c r="D289" s="11"/>
-      <c r="E289" s="12"/>
+      <c r="E289" s="13"/>
       <c r="F289" s="11" t="s">
         <v>949</v>
       </c>
@@ -17192,7 +17195,7 @@
         <v>1543</v>
       </c>
       <c r="D290" s="11"/>
-      <c r="E290" s="12"/>
+      <c r="E290" s="13"/>
       <c r="F290" s="11" t="s">
         <v>81</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>394</v>
       </c>
       <c r="D291" s="11"/>
-      <c r="E291" s="12"/>
+      <c r="E291" s="13"/>
       <c r="F291" s="11" t="s">
         <v>949</v>
       </c>
@@ -17274,7 +17277,7 @@
         <v>394</v>
       </c>
       <c r="D292" s="11"/>
-      <c r="E292" s="12"/>
+      <c r="E292" s="13"/>
       <c r="F292" s="11" t="s">
         <v>81</v>
       </c>
@@ -17315,7 +17318,7 @@
         <v>1534</v>
       </c>
       <c r="D293" s="11"/>
-      <c r="E293" s="12"/>
+      <c r="E293" s="13"/>
       <c r="F293" s="11" t="s">
         <v>315</v>
       </c>
@@ -17356,7 +17359,7 @@
         <v>394</v>
       </c>
       <c r="D294" s="11"/>
-      <c r="E294" s="12"/>
+      <c r="E294" s="13"/>
       <c r="F294" s="11" t="s">
         <v>288</v>
       </c>
@@ -17397,7 +17400,7 @@
         <v>1543</v>
       </c>
       <c r="D295" s="11"/>
-      <c r="E295" s="12"/>
+      <c r="E295" s="13"/>
       <c r="F295" s="11" t="s">
         <v>315</v>
       </c>
@@ -17438,7 +17441,7 @@
         <v>394</v>
       </c>
       <c r="D296" s="11"/>
-      <c r="E296" s="12"/>
+      <c r="E296" s="13"/>
       <c r="F296" s="11" t="s">
         <v>1428</v>
       </c>
@@ -17479,7 +17482,7 @@
         <v>1534</v>
       </c>
       <c r="D297" s="11"/>
-      <c r="E297" s="12"/>
+      <c r="E297" s="13"/>
       <c r="F297" s="11" t="s">
         <v>1206</v>
       </c>
@@ -17520,7 +17523,7 @@
         <v>874</v>
       </c>
       <c r="D298" s="11"/>
-      <c r="E298" s="12"/>
+      <c r="E298" s="13"/>
       <c r="F298" s="11" t="s">
         <v>52</v>
       </c>
@@ -17561,7 +17564,7 @@
         <v>1543</v>
       </c>
       <c r="D299" s="11"/>
-      <c r="E299" s="12"/>
+      <c r="E299" s="13"/>
       <c r="F299" s="11" t="s">
         <v>1564</v>
       </c>
@@ -17602,7 +17605,7 @@
         <v>1543</v>
       </c>
       <c r="D300" s="11"/>
-      <c r="E300" s="12"/>
+      <c r="E300" s="13"/>
       <c r="F300" s="11" t="s">
         <v>265</v>
       </c>
@@ -17643,7 +17646,7 @@
         <v>1543</v>
       </c>
       <c r="D301" s="11"/>
-      <c r="E301" s="12"/>
+      <c r="E301" s="13"/>
       <c r="F301" s="11" t="s">
         <v>1206</v>
       </c>
@@ -17684,7 +17687,7 @@
         <v>1534</v>
       </c>
       <c r="D302" s="11"/>
-      <c r="E302" s="12"/>
+      <c r="E302" s="13"/>
       <c r="F302" s="11" t="s">
         <v>1229</v>
       </c>
@@ -17725,7 +17728,7 @@
         <v>394</v>
       </c>
       <c r="D303" s="11"/>
-      <c r="E303" s="12"/>
+      <c r="E303" s="13"/>
       <c r="F303" s="11" t="s">
         <v>1229</v>
       </c>
@@ -17766,7 +17769,7 @@
         <v>394</v>
       </c>
       <c r="D304" s="11"/>
-      <c r="E304" s="12"/>
+      <c r="E304" s="13"/>
       <c r="F304" s="11" t="s">
         <v>949</v>
       </c>
@@ -17807,7 +17810,7 @@
         <v>1543</v>
       </c>
       <c r="D305" s="11"/>
-      <c r="E305" s="12"/>
+      <c r="E305" s="13"/>
       <c r="F305" s="11" t="s">
         <v>949</v>
       </c>
@@ -17848,7 +17851,7 @@
         <v>360</v>
       </c>
       <c r="D306" s="11"/>
-      <c r="E306" s="12"/>
+      <c r="E306" s="13"/>
       <c r="F306" s="11" t="s">
         <v>949</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v>874</v>
       </c>
       <c r="D307" s="11"/>
-      <c r="E307" s="12"/>
+      <c r="E307" s="13"/>
       <c r="F307" s="11" t="s">
         <v>821</v>
       </c>
@@ -17930,7 +17933,7 @@
         <v>350</v>
       </c>
       <c r="D308" s="11"/>
-      <c r="E308" s="12"/>
+      <c r="E308" s="13"/>
       <c r="F308" s="11" t="s">
         <v>315</v>
       </c>
@@ -17971,7 +17974,7 @@
         <v>1575</v>
       </c>
       <c r="D309" s="11"/>
-      <c r="E309" s="12"/>
+      <c r="E309" s="13"/>
       <c r="F309" s="11" t="s">
         <v>1576</v>
       </c>
@@ -18012,7 +18015,7 @@
         <v>381</v>
       </c>
       <c r="D310" s="11"/>
-      <c r="E310" s="12"/>
+      <c r="E310" s="13"/>
       <c r="F310" s="11" t="s">
         <v>315</v>
       </c>
@@ -18053,7 +18056,7 @@
         <v>350</v>
       </c>
       <c r="D311" s="11"/>
-      <c r="E311" s="12"/>
+      <c r="E311" s="13"/>
       <c r="F311" s="11" t="s">
         <v>315</v>
       </c>
@@ -18094,7 +18097,7 @@
         <v>1575</v>
       </c>
       <c r="D312" s="11"/>
-      <c r="E312" s="12"/>
+      <c r="E312" s="13"/>
       <c r="F312" s="11" t="s">
         <v>1576</v>
       </c>
@@ -18117,7 +18120,7 @@
         <v>20</v>
       </c>
       <c r="M312" s="11"/>
-      <c r="N312" s="38">
+      <c r="N312" s="37">
         <v>973480</v>
       </c>
       <c r="O312" s="11" t="s">
@@ -18135,7 +18138,7 @@
         <v>1575</v>
       </c>
       <c r="D313" s="11"/>
-      <c r="E313" s="12"/>
+      <c r="E313" s="13"/>
       <c r="F313" s="11" t="s">
         <v>1581</v>
       </c>
@@ -18176,7 +18179,7 @@
         <v>1575</v>
       </c>
       <c r="D314" s="11"/>
-      <c r="E314" s="12"/>
+      <c r="E314" s="13"/>
       <c r="F314" s="11" t="s">
         <v>821</v>
       </c>
@@ -18217,7 +18220,7 @@
         <v>350</v>
       </c>
       <c r="D315" s="11"/>
-      <c r="E315" s="12"/>
+      <c r="E315" s="13"/>
       <c r="F315" s="11" t="s">
         <v>315</v>
       </c>
@@ -18258,7 +18261,7 @@
         <v>350</v>
       </c>
       <c r="D316" s="11"/>
-      <c r="E316" s="12"/>
+      <c r="E316" s="13"/>
       <c r="F316" s="11" t="s">
         <v>81</v>
       </c>
@@ -18299,7 +18302,7 @@
         <v>1586</v>
       </c>
       <c r="D317" s="11"/>
-      <c r="E317" s="12"/>
+      <c r="E317" s="13"/>
       <c r="F317" s="11" t="s">
         <v>315</v>
       </c>
@@ -18340,7 +18343,7 @@
         <v>350</v>
       </c>
       <c r="D318" s="11"/>
-      <c r="E318" s="12"/>
+      <c r="E318" s="13"/>
       <c r="F318" s="11" t="s">
         <v>288</v>
       </c>
@@ -18379,7 +18382,7 @@
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
-      <c r="E319" s="12"/>
+      <c r="E319" s="13"/>
       <c r="F319" s="11" t="s">
         <v>949</v>
       </c>
@@ -18420,7 +18423,7 @@
         <v>1586</v>
       </c>
       <c r="D320" s="11"/>
-      <c r="E320" s="12"/>
+      <c r="E320" s="13"/>
       <c r="F320" s="11" t="s">
         <v>315</v>
       </c>
@@ -18461,7 +18464,7 @@
         <v>360</v>
       </c>
       <c r="D321" s="11"/>
-      <c r="E321" s="12"/>
+      <c r="E321" s="13"/>
       <c r="F321" s="11" t="s">
         <v>1206</v>
       </c>
@@ -18502,7 +18505,7 @@
         <v>350</v>
       </c>
       <c r="D322" s="11"/>
-      <c r="E322" s="12"/>
+      <c r="E322" s="13"/>
       <c r="F322" s="11" t="s">
         <v>1229</v>
       </c>
@@ -18543,7 +18546,7 @@
         <v>874</v>
       </c>
       <c r="D323" s="11"/>
-      <c r="E323" s="12"/>
+      <c r="E323" s="13"/>
       <c r="F323" s="11" t="s">
         <v>1223</v>
       </c>
@@ -18584,7 +18587,7 @@
         <v>1575</v>
       </c>
       <c r="D324" s="11"/>
-      <c r="E324" s="12"/>
+      <c r="E324" s="13"/>
       <c r="F324" s="11" t="s">
         <v>1593</v>
       </c>
@@ -18625,7 +18628,7 @@
         <v>350</v>
       </c>
       <c r="D325" s="11"/>
-      <c r="E325" s="12"/>
+      <c r="E325" s="13"/>
       <c r="F325" s="11" t="s">
         <v>1193</v>
       </c>
@@ -18666,7 +18669,7 @@
         <v>1586</v>
       </c>
       <c r="D326" s="11"/>
-      <c r="E326" s="12"/>
+      <c r="E326" s="13"/>
       <c r="F326" s="11" t="s">
         <v>315</v>
       </c>
@@ -18707,7 +18710,7 @@
         <v>350</v>
       </c>
       <c r="D327" s="11"/>
-      <c r="E327" s="12"/>
+      <c r="E327" s="13"/>
       <c r="F327" s="11" t="s">
         <v>315</v>
       </c>
@@ -18748,7 +18751,7 @@
         <v>338</v>
       </c>
       <c r="D328" s="11"/>
-      <c r="E328" s="12"/>
+      <c r="E328" s="13"/>
       <c r="F328" s="11" t="s">
         <v>315</v>
       </c>
@@ -18789,7 +18792,7 @@
         <v>874</v>
       </c>
       <c r="D329" s="11"/>
-      <c r="E329" s="12"/>
+      <c r="E329" s="13"/>
       <c r="F329" s="11" t="s">
         <v>52</v>
       </c>
@@ -18830,7 +18833,7 @@
         <v>1101</v>
       </c>
       <c r="D330" s="11"/>
-      <c r="E330" s="12"/>
+      <c r="E330" s="13"/>
       <c r="F330" s="11" t="s">
         <v>1600</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>320</v>
       </c>
       <c r="D331" s="11"/>
-      <c r="E331" s="12"/>
+      <c r="E331" s="13"/>
       <c r="F331" s="11" t="s">
         <v>1602</v>
       </c>
@@ -18912,7 +18915,7 @@
         <v>1101</v>
       </c>
       <c r="D332" s="11"/>
-      <c r="E332" s="12"/>
+      <c r="E332" s="13"/>
       <c r="F332" s="11" t="s">
         <v>1604</v>
       </c>
@@ -18953,7 +18956,7 @@
         <v>298</v>
       </c>
       <c r="D333" s="11"/>
-      <c r="E333" s="12"/>
+      <c r="E333" s="13"/>
       <c r="F333" s="11" t="s">
         <v>288</v>
       </c>
@@ -18994,7 +18997,7 @@
         <v>338</v>
       </c>
       <c r="D334" s="11"/>
-      <c r="E334" s="12"/>
+      <c r="E334" s="13"/>
       <c r="F334" s="11" t="s">
         <v>315</v>
       </c>
@@ -19035,7 +19038,7 @@
         <v>338</v>
       </c>
       <c r="D335" s="11"/>
-      <c r="E335" s="12"/>
+      <c r="E335" s="13"/>
       <c r="F335" s="11" t="s">
         <v>315</v>
       </c>
@@ -19076,7 +19079,7 @@
         <v>1101</v>
       </c>
       <c r="D336" s="11"/>
-      <c r="E336" s="12"/>
+      <c r="E336" s="13"/>
       <c r="F336" s="11" t="s">
         <v>1609</v>
       </c>
@@ -19117,7 +19120,7 @@
         <v>1101</v>
       </c>
       <c r="D337" s="11"/>
-      <c r="E337" s="12"/>
+      <c r="E337" s="13"/>
       <c r="F337" s="11" t="s">
         <v>559</v>
       </c>
@@ -19158,7 +19161,7 @@
         <v>1164</v>
       </c>
       <c r="D338" s="11"/>
-      <c r="E338" s="12"/>
+      <c r="E338" s="13"/>
       <c r="F338" s="11" t="s">
         <v>1206</v>
       </c>
@@ -19199,7 +19202,7 @@
         <v>1101</v>
       </c>
       <c r="D339" s="11"/>
-      <c r="E339" s="12"/>
+      <c r="E339" s="13"/>
       <c r="F339" s="11" t="s">
         <v>107</v>
       </c>
@@ -19240,7 +19243,7 @@
         <v>874</v>
       </c>
       <c r="D340" s="11"/>
-      <c r="E340" s="12"/>
+      <c r="E340" s="13"/>
       <c r="F340" s="11" t="s">
         <v>1193</v>
       </c>
@@ -19281,7 +19284,7 @@
         <v>320</v>
       </c>
       <c r="D341" s="11"/>
-      <c r="E341" s="12"/>
+      <c r="E341" s="13"/>
       <c r="F341" s="11" t="s">
         <v>1615</v>
       </c>
@@ -19322,7 +19325,7 @@
         <v>975</v>
       </c>
       <c r="D342" s="11"/>
-      <c r="E342" s="12"/>
+      <c r="E342" s="13"/>
       <c r="F342" s="11" t="s">
         <v>1617</v>
       </c>
@@ -19363,7 +19366,7 @@
         <v>298</v>
       </c>
       <c r="D343" s="11"/>
-      <c r="E343" s="12"/>
+      <c r="E343" s="13"/>
       <c r="F343" s="11" t="s">
         <v>81</v>
       </c>
@@ -19404,7 +19407,7 @@
         <v>320</v>
       </c>
       <c r="D344" s="11"/>
-      <c r="E344" s="12"/>
+      <c r="E344" s="13"/>
       <c r="F344" s="11" t="s">
         <v>1615</v>
       </c>
@@ -19445,7 +19448,7 @@
         <v>1101</v>
       </c>
       <c r="D345" s="11"/>
-      <c r="E345" s="12"/>
+      <c r="E345" s="13"/>
       <c r="F345" s="11" t="s">
         <v>555</v>
       </c>
@@ -19486,7 +19489,7 @@
         <v>320</v>
       </c>
       <c r="D346" s="11"/>
-      <c r="E346" s="12"/>
+      <c r="E346" s="13"/>
       <c r="F346" s="11" t="s">
         <v>300</v>
       </c>
@@ -19527,7 +19530,7 @@
         <v>1101</v>
       </c>
       <c r="D347" s="11"/>
-      <c r="E347" s="12"/>
+      <c r="E347" s="13"/>
       <c r="F347" s="11" t="s">
         <v>315</v>
       </c>
@@ -19568,7 +19571,7 @@
         <v>298</v>
       </c>
       <c r="D348" s="11"/>
-      <c r="E348" s="12"/>
+      <c r="E348" s="13"/>
       <c r="F348" s="11" t="s">
         <v>1624</v>
       </c>
@@ -19609,7 +19612,7 @@
         <v>298</v>
       </c>
       <c r="D349" s="11"/>
-      <c r="E349" s="12"/>
+      <c r="E349" s="13"/>
       <c r="F349" s="11" t="s">
         <v>315</v>
       </c>
@@ -19650,7 +19653,7 @@
         <v>320</v>
       </c>
       <c r="D350" s="11"/>
-      <c r="E350" s="12"/>
+      <c r="E350" s="13"/>
       <c r="F350" s="11" t="s">
         <v>1627</v>
       </c>
@@ -19691,7 +19694,7 @@
         <v>320</v>
       </c>
       <c r="D351" s="11"/>
-      <c r="E351" s="12"/>
+      <c r="E351" s="13"/>
       <c r="F351" s="11" t="s">
         <v>1615</v>
       </c>
@@ -19732,7 +19735,7 @@
         <v>1101</v>
       </c>
       <c r="D352" s="11"/>
-      <c r="E352" s="12"/>
+      <c r="E352" s="13"/>
       <c r="F352" s="11" t="s">
         <v>315</v>
       </c>
@@ -19773,7 +19776,7 @@
         <v>334</v>
       </c>
       <c r="D353" s="11"/>
-      <c r="E353" s="12"/>
+      <c r="E353" s="13"/>
       <c r="F353" s="11" t="s">
         <v>315</v>
       </c>
@@ -19814,7 +19817,7 @@
         <v>975</v>
       </c>
       <c r="D354" s="11"/>
-      <c r="E354" s="12"/>
+      <c r="E354" s="13"/>
       <c r="F354" s="11" t="s">
         <v>107</v>
       </c>
@@ -19855,7 +19858,7 @@
         <v>334</v>
       </c>
       <c r="D355" s="11"/>
-      <c r="E355" s="12"/>
+      <c r="E355" s="13"/>
       <c r="F355" s="11" t="s">
         <v>1633</v>
       </c>
@@ -19896,7 +19899,7 @@
         <v>1101</v>
       </c>
       <c r="D356" s="11"/>
-      <c r="E356" s="12"/>
+      <c r="E356" s="13"/>
       <c r="F356" s="11" t="s">
         <v>1635</v>
       </c>
@@ -19937,7 +19940,7 @@
         <v>334</v>
       </c>
       <c r="D357" s="11"/>
-      <c r="E357" s="12"/>
+      <c r="E357" s="13"/>
       <c r="F357" s="11" t="s">
         <v>1581</v>
       </c>
@@ -19978,7 +19981,7 @@
         <v>298</v>
       </c>
       <c r="D358" s="11"/>
-      <c r="E358" s="12"/>
+      <c r="E358" s="13"/>
       <c r="F358" s="11" t="s">
         <v>288</v>
       </c>
@@ -20019,7 +20022,7 @@
         <v>320</v>
       </c>
       <c r="D359" s="11"/>
-      <c r="E359" s="12"/>
+      <c r="E359" s="13"/>
       <c r="F359" s="11" t="s">
         <v>1615</v>
       </c>
@@ -20060,7 +20063,7 @@
         <v>1101</v>
       </c>
       <c r="D360" s="11"/>
-      <c r="E360" s="12"/>
+      <c r="E360" s="13"/>
       <c r="F360" s="11" t="s">
         <v>1581</v>
       </c>
@@ -20101,7 +20104,7 @@
         <v>975</v>
       </c>
       <c r="D361" s="11"/>
-      <c r="E361" s="12"/>
+      <c r="E361" s="13"/>
       <c r="F361" s="11" t="s">
         <v>1617</v>
       </c>
@@ -20142,7 +20145,7 @@
         <v>1101</v>
       </c>
       <c r="D362" s="11"/>
-      <c r="E362" s="12"/>
+      <c r="E362" s="13"/>
       <c r="F362" s="11" t="s">
         <v>1604</v>
       </c>
@@ -20183,7 +20186,7 @@
         <v>975</v>
       </c>
       <c r="D363" s="11"/>
-      <c r="E363" s="12"/>
+      <c r="E363" s="13"/>
       <c r="F363" s="11" t="s">
         <v>1643</v>
       </c>
@@ -20224,7 +20227,7 @@
         <v>1164</v>
       </c>
       <c r="D364" s="11"/>
-      <c r="E364" s="12"/>
+      <c r="E364" s="13"/>
       <c r="F364" s="11" t="s">
         <v>1645</v>
       </c>
@@ -20265,7 +20268,7 @@
         <v>1101</v>
       </c>
       <c r="D365" s="11"/>
-      <c r="E365" s="12"/>
+      <c r="E365" s="13"/>
       <c r="F365" s="11" t="s">
         <v>1229</v>
       </c>
@@ -20306,7 +20309,7 @@
         <v>1101</v>
       </c>
       <c r="D366" s="11"/>
-      <c r="E366" s="12"/>
+      <c r="E366" s="13"/>
       <c r="F366" s="11" t="s">
         <v>1648</v>
       </c>
@@ -20347,7 +20350,7 @@
         <v>1164</v>
       </c>
       <c r="D367" s="11"/>
-      <c r="E367" s="12"/>
+      <c r="E367" s="13"/>
       <c r="F367" s="11" t="s">
         <v>300</v>
       </c>
@@ -20388,7 +20391,7 @@
         <v>874</v>
       </c>
       <c r="D368" s="11"/>
-      <c r="E368" s="12"/>
+      <c r="E368" s="13"/>
       <c r="F368" s="11" t="s">
         <v>923</v>
       </c>
@@ -20427,7 +20430,7 @@
       </c>
       <c r="C369" s="31"/>
       <c r="D369" s="11"/>
-      <c r="E369" s="12"/>
+      <c r="E369" s="13"/>
       <c r="F369" s="11" t="s">
         <v>821</v>
       </c>
@@ -20466,7 +20469,7 @@
       </c>
       <c r="C370" s="31"/>
       <c r="D370" s="11"/>
-      <c r="E370" s="12"/>
+      <c r="E370" s="13"/>
       <c r="F370" s="11" t="s">
         <v>1654</v>
       </c>
@@ -20505,7 +20508,7 @@
       </c>
       <c r="C371" s="31"/>
       <c r="D371" s="11"/>
-      <c r="E371" s="12"/>
+      <c r="E371" s="13"/>
       <c r="F371" s="11" t="s">
         <v>848</v>
       </c>
@@ -20544,7 +20547,7 @@
       </c>
       <c r="C372" s="31"/>
       <c r="D372" s="11"/>
-      <c r="E372" s="12"/>
+      <c r="E372" s="13"/>
       <c r="F372" s="11" t="s">
         <v>1231</v>
       </c>
@@ -20583,7 +20586,7 @@
       </c>
       <c r="C373" s="31"/>
       <c r="D373" s="11"/>
-      <c r="E373" s="12"/>
+      <c r="E373" s="13"/>
       <c r="F373" s="11" t="s">
         <v>52</v>
       </c>
@@ -20622,7 +20625,7 @@
       </c>
       <c r="C374" s="31"/>
       <c r="D374" s="11"/>
-      <c r="E374" s="12"/>
+      <c r="E374" s="13"/>
       <c r="F374" s="11" t="s">
         <v>315</v>
       </c>
@@ -20661,7 +20664,7 @@
       </c>
       <c r="C375" s="31"/>
       <c r="D375" s="11"/>
-      <c r="E375" s="12"/>
+      <c r="E375" s="13"/>
       <c r="F375" s="11" t="s">
         <v>265</v>
       </c>
@@ -20700,7 +20703,7 @@
       </c>
       <c r="C376" s="31"/>
       <c r="D376" s="11"/>
-      <c r="E376" s="12"/>
+      <c r="E376" s="13"/>
       <c r="F376" s="11" t="s">
         <v>1274</v>
       </c>
@@ -20741,7 +20744,7 @@
         <v>874</v>
       </c>
       <c r="D377" s="11"/>
-      <c r="E377" s="12"/>
+      <c r="E377" s="13"/>
       <c r="F377" s="11" t="s">
         <v>235</v>
       </c>
@@ -20780,7 +20783,7 @@
       </c>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
-      <c r="E378" s="12"/>
+      <c r="E378" s="13"/>
       <c r="F378" s="11" t="s">
         <v>315</v>
       </c>
@@ -20821,7 +20824,7 @@
         <v>1664</v>
       </c>
       <c r="D379" s="11"/>
-      <c r="E379" s="12"/>
+      <c r="E379" s="13"/>
       <c r="F379" s="11" t="s">
         <v>1665</v>
       </c>
@@ -20862,7 +20865,7 @@
         <v>1667</v>
       </c>
       <c r="D380" s="11"/>
-      <c r="E380" s="12"/>
+      <c r="E380" s="13"/>
       <c r="F380" s="11" t="s">
         <v>1668</v>
       </c>
@@ -20903,7 +20906,7 @@
         <v>874</v>
       </c>
       <c r="D381" s="11"/>
-      <c r="E381" s="12"/>
+      <c r="E381" s="13"/>
       <c r="F381" s="11" t="s">
         <v>1193</v>
       </c>
@@ -20944,7 +20947,7 @@
         <v>874</v>
       </c>
       <c r="D382" s="11"/>
-      <c r="E382" s="12"/>
+      <c r="E382" s="13"/>
       <c r="F382" s="11" t="s">
         <v>81</v>
       </c>
@@ -20985,7 +20988,7 @@
         <v>471</v>
       </c>
       <c r="D383" s="11"/>
-      <c r="E383" s="12"/>
+      <c r="E383" s="13"/>
       <c r="F383" s="11" t="s">
         <v>1206</v>
       </c>
@@ -21026,7 +21029,7 @@
         <v>483</v>
       </c>
       <c r="D384" s="11"/>
-      <c r="E384" s="12"/>
+      <c r="E384" s="13"/>
       <c r="F384" s="11" t="s">
         <v>1428</v>
       </c>
@@ -21067,7 +21070,7 @@
         <v>874</v>
       </c>
       <c r="D385" s="11"/>
-      <c r="E385" s="12"/>
+      <c r="E385" s="13"/>
       <c r="F385" s="11" t="s">
         <v>1674</v>
       </c>
@@ -21108,7 +21111,7 @@
         <v>471</v>
       </c>
       <c r="D386" s="11"/>
-      <c r="E386" s="12"/>
+      <c r="E386" s="13"/>
       <c r="F386" s="11" t="s">
         <v>1206</v>
       </c>
@@ -21149,7 +21152,7 @@
         <v>874</v>
       </c>
       <c r="D387" s="11"/>
-      <c r="E387" s="12"/>
+      <c r="E387" s="13"/>
       <c r="F387" s="11" t="s">
         <v>1677</v>
       </c>
@@ -21190,7 +21193,7 @@
         <v>874</v>
       </c>
       <c r="D388" s="11"/>
-      <c r="E388" s="12"/>
+      <c r="E388" s="13"/>
       <c r="F388" s="11" t="s">
         <v>1223</v>
       </c>
@@ -21231,7 +21234,7 @@
         <v>483</v>
       </c>
       <c r="D389" s="11"/>
-      <c r="E389" s="12"/>
+      <c r="E389" s="13"/>
       <c r="F389" s="11" t="s">
         <v>1428</v>
       </c>
@@ -21272,7 +21275,7 @@
         <v>874</v>
       </c>
       <c r="D390" s="11"/>
-      <c r="E390" s="12"/>
+      <c r="E390" s="13"/>
       <c r="F390" s="11" t="s">
         <v>1274</v>
       </c>
@@ -21313,7 +21316,7 @@
         <v>874</v>
       </c>
       <c r="D391" s="11"/>
-      <c r="E391" s="12"/>
+      <c r="E391" s="13"/>
       <c r="F391" s="11" t="s">
         <v>1292</v>
       </c>
@@ -21354,7 +21357,7 @@
         <v>1683</v>
       </c>
       <c r="D392" s="11"/>
-      <c r="E392" s="12"/>
+      <c r="E392" s="13"/>
       <c r="F392" s="11" t="s">
         <v>81</v>
       </c>
@@ -21395,7 +21398,7 @@
         <v>874</v>
       </c>
       <c r="D393" s="11"/>
-      <c r="E393" s="12"/>
+      <c r="E393" s="13"/>
       <c r="F393" s="11" t="s">
         <v>1292</v>
       </c>
@@ -21436,7 +21439,7 @@
         <v>1683</v>
       </c>
       <c r="D394" s="11"/>
-      <c r="E394" s="12"/>
+      <c r="E394" s="13"/>
       <c r="F394" s="11" t="s">
         <v>1674</v>
       </c>
@@ -21477,7 +21480,7 @@
         <v>1683</v>
       </c>
       <c r="D395" s="11"/>
-      <c r="E395" s="12"/>
+      <c r="E395" s="13"/>
       <c r="F395" s="11" t="s">
         <v>265</v>
       </c>
@@ -21516,7 +21519,7 @@
       </c>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
-      <c r="E396" s="12"/>
+      <c r="E396" s="13"/>
       <c r="F396" s="11" t="s">
         <v>571</v>
       </c>
@@ -21557,7 +21560,7 @@
         <v>1173</v>
       </c>
       <c r="D397" s="11"/>
-      <c r="E397" s="12"/>
+      <c r="E397" s="13"/>
       <c r="F397" s="11" t="s">
         <v>265</v>
       </c>
@@ -21598,7 +21601,7 @@
         <v>1173</v>
       </c>
       <c r="D398" s="11"/>
-      <c r="E398" s="12"/>
+      <c r="E398" s="13"/>
       <c r="F398" s="11" t="s">
         <v>949</v>
       </c>
@@ -21639,7 +21642,7 @@
         <v>1173</v>
       </c>
       <c r="D399" s="11"/>
-      <c r="E399" s="12"/>
+      <c r="E399" s="13"/>
       <c r="F399" s="11" t="s">
         <v>52</v>
       </c>
@@ -21680,7 +21683,7 @@
         <v>1692</v>
       </c>
       <c r="D400" s="11"/>
-      <c r="E400" s="12"/>
+      <c r="E400" s="13"/>
       <c r="F400" s="11" t="s">
         <v>1693</v>
       </c>
@@ -21721,7 +21724,7 @@
         <v>874</v>
       </c>
       <c r="D401" s="11"/>
-      <c r="E401" s="12"/>
+      <c r="E401" s="13"/>
       <c r="F401" s="11" t="s">
         <v>1193</v>
       </c>
@@ -21762,7 +21765,7 @@
         <v>606</v>
       </c>
       <c r="D402" s="11"/>
-      <c r="E402" s="12"/>
+      <c r="E402" s="13"/>
       <c r="F402" s="11" t="s">
         <v>940</v>
       </c>
@@ -21801,7 +21804,7 @@
       </c>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
-      <c r="E403" s="12"/>
+      <c r="E403" s="13"/>
       <c r="F403" s="11" t="s">
         <v>508</v>
       </c>
@@ -21842,7 +21845,7 @@
         <v>360</v>
       </c>
       <c r="D404" s="11"/>
-      <c r="E404" s="12"/>
+      <c r="E404" s="13"/>
       <c r="F404" s="11" t="s">
         <v>949</v>
       </c>
@@ -21881,7 +21884,7 @@
       </c>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
-      <c r="E405" s="12"/>
+      <c r="E405" s="13"/>
       <c r="F405" s="11" t="s">
         <v>288</v>
       </c>
@@ -21920,7 +21923,7 @@
       </c>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
-      <c r="E406" s="12"/>
+      <c r="E406" s="13"/>
       <c r="F406" s="11" t="s">
         <v>282</v>
       </c>
@@ -21959,7 +21962,7 @@
       </c>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
-      <c r="E407" s="12"/>
+      <c r="E407" s="13"/>
       <c r="F407" s="11" t="s">
         <v>957</v>
       </c>
@@ -21998,7 +22001,7 @@
       </c>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
-      <c r="E408" s="12"/>
+      <c r="E408" s="13"/>
       <c r="F408" s="11" t="s">
         <v>957</v>
       </c>
@@ -22037,7 +22040,7 @@
       </c>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
-      <c r="E409" s="12"/>
+      <c r="E409" s="13"/>
       <c r="F409" s="11" t="s">
         <v>960</v>
       </c>
@@ -22076,7 +22079,7 @@
       </c>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
-      <c r="E410" s="12"/>
+      <c r="E410" s="13"/>
       <c r="F410" s="11" t="s">
         <v>962</v>
       </c>
@@ -22115,7 +22118,7 @@
       </c>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
-      <c r="E411" s="12"/>
+      <c r="E411" s="13"/>
       <c r="F411" s="11" t="s">
         <v>965</v>
       </c>
@@ -22156,7 +22159,7 @@
         <v>967</v>
       </c>
       <c r="D412" s="11"/>
-      <c r="E412" s="12"/>
+      <c r="E412" s="13"/>
       <c r="F412" s="11" t="s">
         <v>968</v>
       </c>
@@ -22195,7 +22198,7 @@
       </c>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
-      <c r="E413" s="12"/>
+      <c r="E413" s="13"/>
       <c r="F413" s="11" t="s">
         <v>970</v>
       </c>
@@ -22234,7 +22237,7 @@
       </c>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
-      <c r="E414" s="12"/>
+      <c r="E414" s="13"/>
       <c r="F414" s="11" t="s">
         <v>559</v>
       </c>
@@ -22275,7 +22278,7 @@
         <v>975</v>
       </c>
       <c r="D415" s="11"/>
-      <c r="E415" s="12"/>
+      <c r="E415" s="13"/>
       <c r="F415" s="11" t="s">
         <v>95</v>
       </c>
@@ -22316,7 +22319,7 @@
         <v>878</v>
       </c>
       <c r="D416" s="11"/>
-      <c r="E416" s="12"/>
+      <c r="E416" s="13"/>
       <c r="F416" s="11" t="s">
         <v>977</v>
       </c>
@@ -22355,7 +22358,7 @@
       </c>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
-      <c r="E417" s="12"/>
+      <c r="E417" s="13"/>
       <c r="F417" s="11" t="s">
         <v>957</v>
       </c>
@@ -22394,7 +22397,7 @@
       </c>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
-      <c r="E418" s="12"/>
+      <c r="E418" s="13"/>
       <c r="F418" s="11" t="s">
         <v>957</v>
       </c>
@@ -22433,7 +22436,7 @@
       </c>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
-      <c r="E419" s="12"/>
+      <c r="E419" s="13"/>
       <c r="F419" s="11" t="s">
         <v>949</v>
       </c>
@@ -22474,7 +22477,7 @@
         <v>878</v>
       </c>
       <c r="D420" s="11"/>
-      <c r="E420" s="12"/>
+      <c r="E420" s="13"/>
       <c r="F420" s="11" t="s">
         <v>983</v>
       </c>
@@ -22515,7 +22518,7 @@
         <v>985</v>
       </c>
       <c r="D421" s="11"/>
-      <c r="E421" s="12"/>
+      <c r="E421" s="13"/>
       <c r="F421" s="11" t="s">
         <v>986</v>
       </c>
@@ -22554,7 +22557,7 @@
       </c>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
-      <c r="E422" s="12"/>
+      <c r="E422" s="13"/>
       <c r="F422" s="11" t="s">
         <v>988</v>
       </c>
@@ -22593,7 +22596,7 @@
       </c>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
-      <c r="E423" s="12"/>
+      <c r="E423" s="13"/>
       <c r="F423" s="11" t="s">
         <v>957</v>
       </c>
@@ -22632,7 +22635,7 @@
       </c>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
-      <c r="E424" s="12"/>
+      <c r="E424" s="13"/>
       <c r="F424" s="11" t="s">
         <v>949</v>
       </c>
@@ -22673,7 +22676,7 @@
         <v>993</v>
       </c>
       <c r="D425" s="11"/>
-      <c r="E425" s="12"/>
+      <c r="E425" s="13"/>
       <c r="F425" s="11" t="s">
         <v>949</v>
       </c>
@@ -22712,7 +22715,7 @@
       </c>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
-      <c r="E426" s="12"/>
+      <c r="E426" s="13"/>
       <c r="F426" s="11" t="s">
         <v>996</v>
       </c>
@@ -22753,7 +22756,7 @@
         <v>878</v>
       </c>
       <c r="D427" s="11"/>
-      <c r="E427" s="12"/>
+      <c r="E427" s="13"/>
       <c r="F427" s="11" t="s">
         <v>983</v>
       </c>
@@ -22792,7 +22795,7 @@
       </c>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
-      <c r="E428" s="12"/>
+      <c r="E428" s="13"/>
       <c r="F428" s="11" t="s">
         <v>47</v>
       </c>
@@ -22831,7 +22834,7 @@
       </c>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
-      <c r="E429" s="12"/>
+      <c r="E429" s="13"/>
       <c r="F429" s="15" t="s">
         <v>957</v>
       </c>
@@ -22868,7 +22871,7 @@
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
-      <c r="E430" s="12"/>
+      <c r="E430" s="13"/>
       <c r="F430" s="11" t="s">
         <v>1002</v>
       </c>
@@ -22907,7 +22910,7 @@
       </c>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
-      <c r="E431" s="12"/>
+      <c r="E431" s="13"/>
       <c r="F431" s="11" t="s">
         <v>957</v>
       </c>
@@ -22946,7 +22949,7 @@
       </c>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
-      <c r="E432" s="12"/>
+      <c r="E432" s="13"/>
       <c r="F432" s="11" t="s">
         <v>1006</v>
       </c>
@@ -22985,7 +22988,7 @@
       </c>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
-      <c r="E433" s="12"/>
+      <c r="E433" s="13"/>
       <c r="F433" s="11" t="s">
         <v>128</v>
       </c>
@@ -23024,7 +23027,7 @@
       </c>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
-      <c r="E434" s="12"/>
+      <c r="E434" s="13"/>
       <c r="F434" s="11" t="s">
         <v>957</v>
       </c>
@@ -23065,7 +23068,7 @@
         <v>1012</v>
       </c>
       <c r="D435" s="11"/>
-      <c r="E435" s="12"/>
+      <c r="E435" s="13"/>
       <c r="F435" s="15" t="s">
         <v>779</v>
       </c>
@@ -23104,7 +23107,7 @@
       </c>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
-      <c r="E436" s="12"/>
+      <c r="E436" s="13"/>
       <c r="F436" s="11" t="s">
         <v>81</v>
       </c>
@@ -23143,7 +23146,7 @@
       </c>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
-      <c r="E437" s="12"/>
+      <c r="E437" s="13"/>
       <c r="F437" s="11" t="s">
         <v>52</v>
       </c>
@@ -23182,7 +23185,7 @@
       </c>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
-      <c r="E438" s="12"/>
+      <c r="E438" s="13"/>
       <c r="F438" s="15" t="s">
         <v>81</v>
       </c>
@@ -23223,7 +23226,7 @@
         <v>918</v>
       </c>
       <c r="D439" s="11"/>
-      <c r="E439" s="12"/>
+      <c r="E439" s="13"/>
       <c r="F439" s="11" t="s">
         <v>1019</v>
       </c>
@@ -23262,7 +23265,7 @@
       </c>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
-      <c r="E440" s="12"/>
+      <c r="E440" s="13"/>
       <c r="F440" s="11" t="s">
         <v>957</v>
       </c>
@@ -23301,7 +23304,7 @@
       </c>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
-      <c r="E441" s="12"/>
+      <c r="E441" s="13"/>
       <c r="F441" s="11" t="s">
         <v>957</v>
       </c>
@@ -23338,7 +23341,7 @@
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
-      <c r="E442" s="12"/>
+      <c r="E442" s="13"/>
       <c r="F442" s="11" t="s">
         <v>1023</v>
       </c>
@@ -23377,7 +23380,7 @@
       </c>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
-      <c r="E443" s="12"/>
+      <c r="E443" s="13"/>
       <c r="F443" s="11" t="s">
         <v>1026</v>
       </c>
@@ -23416,7 +23419,7 @@
       </c>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
-      <c r="E444" s="12"/>
+      <c r="E444" s="13"/>
       <c r="F444" s="11" t="s">
         <v>559</v>
       </c>
@@ -23453,7 +23456,7 @@
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
-      <c r="E445" s="12"/>
+      <c r="E445" s="13"/>
       <c r="F445" s="11" t="s">
         <v>1031</v>
       </c>
@@ -23494,7 +23497,7 @@
         <v>1033</v>
       </c>
       <c r="D446" s="11"/>
-      <c r="E446" s="12"/>
+      <c r="E446" s="13"/>
       <c r="F446" s="11" t="s">
         <v>957</v>
       </c>
@@ -23533,7 +23536,7 @@
       </c>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
-      <c r="E447" s="12"/>
+      <c r="E447" s="13"/>
       <c r="F447" s="11" t="s">
         <v>957</v>
       </c>
@@ -23572,7 +23575,7 @@
       </c>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
-      <c r="E448" s="12"/>
+      <c r="E448" s="13"/>
       <c r="F448" s="11" t="s">
         <v>95</v>
       </c>
@@ -23611,7 +23614,7 @@
       </c>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
-      <c r="E449" s="12"/>
+      <c r="E449" s="13"/>
       <c r="F449" s="11" t="s">
         <v>95</v>
       </c>
@@ -23650,7 +23653,7 @@
       </c>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
-      <c r="E450" s="12"/>
+      <c r="E450" s="13"/>
       <c r="F450" s="15" t="s">
         <v>1039</v>
       </c>
@@ -23691,7 +23694,7 @@
         <v>781</v>
       </c>
       <c r="D451" s="11"/>
-      <c r="E451" s="12"/>
+      <c r="E451" s="13"/>
       <c r="F451" s="15" t="s">
         <v>779</v>
       </c>
@@ -23732,7 +23735,7 @@
         <v>1042</v>
       </c>
       <c r="D452" s="11"/>
-      <c r="E452" s="12"/>
+      <c r="E452" s="13"/>
       <c r="F452" s="11" t="s">
         <v>1043</v>
       </c>
@@ -23771,7 +23774,7 @@
       </c>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
-      <c r="E453" s="12"/>
+      <c r="E453" s="13"/>
       <c r="F453" s="11" t="s">
         <v>957</v>
       </c>
@@ -23812,7 +23815,7 @@
         <v>134</v>
       </c>
       <c r="D454" s="11"/>
-      <c r="E454" s="12"/>
+      <c r="E454" s="13"/>
       <c r="F454" s="11" t="s">
         <v>1047</v>
       </c>
@@ -23853,7 +23856,7 @@
         <v>878</v>
       </c>
       <c r="D455" s="11"/>
-      <c r="E455" s="12"/>
+      <c r="E455" s="13"/>
       <c r="F455" s="11" t="s">
         <v>52</v>
       </c>
@@ -23894,7 +23897,7 @@
         <v>878</v>
       </c>
       <c r="D456" s="11"/>
-      <c r="E456" s="12"/>
+      <c r="E456" s="13"/>
       <c r="F456" s="11" t="s">
         <v>52</v>
       </c>
@@ -23935,7 +23938,7 @@
         <v>804</v>
       </c>
       <c r="D457" s="11"/>
-      <c r="E457" s="12"/>
+      <c r="E457" s="13"/>
       <c r="F457" s="11" t="s">
         <v>821</v>
       </c>
@@ -23974,7 +23977,7 @@
       </c>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
-      <c r="E458" s="12"/>
+      <c r="E458" s="13"/>
       <c r="F458" s="11" t="s">
         <v>957</v>
       </c>
@@ -24013,7 +24016,7 @@
       </c>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
-      <c r="E459" s="12"/>
+      <c r="E459" s="13"/>
       <c r="F459" s="11" t="s">
         <v>957</v>
       </c>
@@ -24052,7 +24055,7 @@
       </c>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
-      <c r="E460" s="12"/>
+      <c r="E460" s="13"/>
       <c r="F460" s="11" t="s">
         <v>81</v>
       </c>
@@ -24091,7 +24094,7 @@
       </c>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
-      <c r="E461" s="12"/>
+      <c r="E461" s="13"/>
       <c r="F461" s="11" t="s">
         <v>508</v>
       </c>
@@ -24130,7 +24133,7 @@
       </c>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
-      <c r="E462" s="12"/>
+      <c r="E462" s="13"/>
       <c r="F462" s="11" t="s">
         <v>81</v>
       </c>
@@ -24171,7 +24174,7 @@
         <v>995</v>
       </c>
       <c r="D463" s="11"/>
-      <c r="E463" s="12"/>
+      <c r="E463" s="13"/>
       <c r="F463" s="15" t="s">
         <v>501</v>
       </c>
@@ -24210,7 +24213,7 @@
       </c>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
-      <c r="E464" s="12"/>
+      <c r="E464" s="13"/>
       <c r="F464" s="15" t="s">
         <v>957</v>
       </c>
@@ -24251,7 +24254,7 @@
         <v>899</v>
       </c>
       <c r="D465" s="11"/>
-      <c r="E465" s="12"/>
+      <c r="E465" s="13"/>
       <c r="F465" s="11" t="s">
         <v>1060</v>
       </c>
@@ -24290,7 +24293,7 @@
       </c>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
-      <c r="E466" s="12"/>
+      <c r="E466" s="13"/>
       <c r="F466" s="11" t="s">
         <v>957</v>
       </c>
@@ -24329,7 +24332,7 @@
       </c>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
-      <c r="E467" s="12"/>
+      <c r="E467" s="13"/>
       <c r="F467" s="15" t="s">
         <v>52</v>
       </c>
@@ -24368,7 +24371,7 @@
       </c>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
-      <c r="E468" s="12"/>
+      <c r="E468" s="13"/>
       <c r="F468" s="11" t="s">
         <v>315</v>
       </c>
@@ -24409,7 +24412,7 @@
         <v>878</v>
       </c>
       <c r="D469" s="11"/>
-      <c r="E469" s="12"/>
+      <c r="E469" s="13"/>
       <c r="F469" s="11" t="s">
         <v>1019</v>
       </c>
@@ -24448,7 +24451,7 @@
       </c>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
-      <c r="E470" s="12"/>
+      <c r="E470" s="13"/>
       <c r="F470" s="11" t="s">
         <v>1066</v>
       </c>
@@ -24487,7 +24490,7 @@
       </c>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
-      <c r="E471" s="12"/>
+      <c r="E471" s="13"/>
       <c r="F471" s="11" t="s">
         <v>315</v>
       </c>
@@ -24526,7 +24529,7 @@
       </c>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
-      <c r="E472" s="12"/>
+      <c r="E472" s="13"/>
       <c r="F472" s="11" t="s">
         <v>1069</v>
       </c>
@@ -24567,7 +24570,7 @@
         <v>878</v>
       </c>
       <c r="D473" s="11"/>
-      <c r="E473" s="12"/>
+      <c r="E473" s="13"/>
       <c r="F473" s="11" t="s">
         <v>977</v>
       </c>
@@ -24604,7 +24607,7 @@
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
-      <c r="E474" s="12"/>
+      <c r="E474" s="13"/>
       <c r="F474" s="11" t="s">
         <v>219</v>
       </c>
@@ -24643,7 +24646,7 @@
       </c>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
-      <c r="E475" s="12"/>
+      <c r="E475" s="13"/>
       <c r="F475" s="11" t="s">
         <v>95</v>
       </c>
@@ -24682,7 +24685,7 @@
       </c>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
-      <c r="E476" s="12"/>
+      <c r="E476" s="13"/>
       <c r="F476" s="11" t="s">
         <v>1075</v>
       </c>
@@ -24721,7 +24724,7 @@
       </c>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
-      <c r="E477" s="12"/>
+      <c r="E477" s="13"/>
       <c r="F477" s="11" t="s">
         <v>949</v>
       </c>
@@ -24760,7 +24763,7 @@
       </c>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
-      <c r="E478" s="12"/>
+      <c r="E478" s="13"/>
       <c r="F478" s="11" t="s">
         <v>508</v>
       </c>
@@ -24799,7 +24802,7 @@
       </c>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
-      <c r="E479" s="12"/>
+      <c r="E479" s="13"/>
       <c r="F479" s="11" t="s">
         <v>1080</v>
       </c>
@@ -24838,7 +24841,7 @@
         <v>1082</v>
       </c>
       <c r="D480" s="11"/>
-      <c r="E480" s="12"/>
+      <c r="E480" s="13"/>
       <c r="F480" s="11" t="s">
         <v>1083</v>
       </c>
@@ -24879,7 +24882,7 @@
         <v>1085</v>
       </c>
       <c r="D481" s="11"/>
-      <c r="E481" s="12"/>
+      <c r="E481" s="13"/>
       <c r="F481" s="11" t="s">
         <v>949</v>
       </c>
@@ -24918,7 +24921,7 @@
       </c>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
-      <c r="E482" s="12"/>
+      <c r="E482" s="13"/>
       <c r="F482" s="11" t="s">
         <v>1006</v>
       </c>
@@ -24959,7 +24962,7 @@
         <v>1091</v>
       </c>
       <c r="D483" s="11"/>
-      <c r="E483" s="12"/>
+      <c r="E483" s="13"/>
       <c r="F483" s="11" t="s">
         <v>179</v>
       </c>
@@ -24998,7 +25001,7 @@
       </c>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
-      <c r="E484" s="12"/>
+      <c r="E484" s="13"/>
       <c r="F484" s="15" t="s">
         <v>282</v>
       </c>
@@ -25037,7 +25040,7 @@
       </c>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
-      <c r="E485" s="12"/>
+      <c r="E485" s="13"/>
       <c r="F485" s="11" t="s">
         <v>957</v>
       </c>
@@ -25076,7 +25079,7 @@
       </c>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
-      <c r="E486" s="12"/>
+      <c r="E486" s="13"/>
       <c r="F486" s="11" t="s">
         <v>957</v>
       </c>
@@ -25117,7 +25120,7 @@
         <v>878</v>
       </c>
       <c r="D487" s="11"/>
-      <c r="E487" s="12"/>
+      <c r="E487" s="13"/>
       <c r="F487" s="11" t="s">
         <v>983</v>
       </c>
@@ -25154,7 +25157,7 @@
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
-      <c r="E488" s="12"/>
+      <c r="E488" s="13"/>
       <c r="F488" s="11" t="s">
         <v>1098</v>
       </c>
@@ -25193,7 +25196,7 @@
       </c>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
-      <c r="E489" s="12"/>
+      <c r="E489" s="13"/>
       <c r="F489" s="11" t="s">
         <v>52</v>
       </c>
@@ -25234,7 +25237,7 @@
         <v>1101</v>
       </c>
       <c r="D490" s="11"/>
-      <c r="E490" s="12"/>
+      <c r="E490" s="13"/>
       <c r="F490" s="11" t="s">
         <v>949</v>
       </c>
@@ -25275,7 +25278,7 @@
         <v>298</v>
       </c>
       <c r="D491" s="11"/>
-      <c r="E491" s="12"/>
+      <c r="E491" s="13"/>
       <c r="F491" s="11" t="s">
         <v>315</v>
       </c>
@@ -25316,7 +25319,7 @@
         <v>1030</v>
       </c>
       <c r="D492" s="11"/>
-      <c r="E492" s="12"/>
+      <c r="E492" s="13"/>
       <c r="F492" s="11" t="s">
         <v>1104</v>
       </c>
@@ -25357,7 +25360,7 @@
         <v>878</v>
       </c>
       <c r="D493" s="11"/>
-      <c r="E493" s="12"/>
+      <c r="E493" s="13"/>
       <c r="F493" s="11" t="s">
         <v>983</v>
       </c>
@@ -25394,7 +25397,7 @@
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
-      <c r="E494" s="12"/>
+      <c r="E494" s="13"/>
       <c r="F494" s="11" t="s">
         <v>1107</v>
       </c>
@@ -25435,7 +25438,7 @@
         <v>305</v>
       </c>
       <c r="D495" s="11"/>
-      <c r="E495" s="12"/>
+      <c r="E495" s="13"/>
       <c r="F495" s="11" t="s">
         <v>1109</v>
       </c>
@@ -25476,7 +25479,7 @@
         <v>1112</v>
       </c>
       <c r="D496" s="11"/>
-      <c r="E496" s="12"/>
+      <c r="E496" s="13"/>
       <c r="F496" s="11" t="s">
         <v>1113</v>
       </c>
@@ -25517,7 +25520,7 @@
         <v>899</v>
       </c>
       <c r="D497" s="11"/>
-      <c r="E497" s="12"/>
+      <c r="E497" s="13"/>
       <c r="F497" s="11" t="s">
         <v>1115</v>
       </c>
@@ -25558,7 +25561,7 @@
         <v>854</v>
       </c>
       <c r="D498" s="11"/>
-      <c r="E498" s="12"/>
+      <c r="E498" s="13"/>
       <c r="F498" s="11" t="s">
         <v>1117</v>
       </c>
@@ -25597,7 +25600,7 @@
       </c>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
-      <c r="E499" s="12"/>
+      <c r="E499" s="13"/>
       <c r="F499" s="11" t="s">
         <v>1119</v>
       </c>
@@ -25634,7 +25637,7 @@
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
-      <c r="E500" s="12"/>
+      <c r="E500" s="13"/>
       <c r="F500" s="11" t="s">
         <v>1006</v>
       </c>
@@ -25673,7 +25676,7 @@
       </c>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
-      <c r="E501" s="12"/>
+      <c r="E501" s="13"/>
       <c r="F501" s="11" t="s">
         <v>1122</v>
       </c>
@@ -25712,7 +25715,7 @@
       </c>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
-      <c r="E502" s="12"/>
+      <c r="E502" s="13"/>
       <c r="F502" s="11" t="s">
         <v>1124</v>
       </c>
@@ -25751,7 +25754,7 @@
       </c>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
-      <c r="E503" s="12"/>
+      <c r="E503" s="13"/>
       <c r="F503" s="11" t="s">
         <v>52</v>
       </c>
@@ -25792,7 +25795,7 @@
         <v>781</v>
       </c>
       <c r="D504" s="11"/>
-      <c r="E504" s="12"/>
+      <c r="E504" s="13"/>
       <c r="F504" s="15" t="s">
         <v>776</v>
       </c>
@@ -25833,7 +25836,7 @@
         <v>1128</v>
       </c>
       <c r="D505" s="11"/>
-      <c r="E505" s="12"/>
+      <c r="E505" s="13"/>
       <c r="F505" s="11" t="s">
         <v>315</v>
       </c>
@@ -25870,7 +25873,7 @@
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
-      <c r="E506" s="12"/>
+      <c r="E506" s="13"/>
       <c r="F506" s="11" t="s">
         <v>1006</v>
       </c>
@@ -25911,7 +25914,7 @@
         <v>1005</v>
       </c>
       <c r="D507" s="11"/>
-      <c r="E507" s="12"/>
+      <c r="E507" s="13"/>
       <c r="F507" s="15" t="s">
         <v>1006</v>
       </c>
@@ -25950,7 +25953,7 @@
       </c>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
-      <c r="E508" s="12"/>
+      <c r="E508" s="13"/>
       <c r="F508" s="11" t="s">
         <v>957</v>
       </c>
@@ -25989,7 +25992,7 @@
       </c>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
-      <c r="E509" s="12"/>
+      <c r="E509" s="13"/>
       <c r="F509" s="11" t="s">
         <v>957</v>
       </c>
@@ -26028,7 +26031,7 @@
       </c>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
-      <c r="E510" s="12"/>
+      <c r="E510" s="13"/>
       <c r="F510" s="15" t="s">
         <v>213</v>
       </c>
@@ -26051,7 +26054,7 @@
         <v>942</v>
       </c>
       <c r="M510" s="11"/>
-      <c r="N510" s="38">
+      <c r="N510" s="37">
         <v>524200</v>
       </c>
       <c r="O510" s="15" t="s">
@@ -26067,7 +26070,7 @@
       </c>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
-      <c r="E511" s="12"/>
+      <c r="E511" s="13"/>
       <c r="F511" s="11" t="s">
         <v>957</v>
       </c>
@@ -26108,7 +26111,7 @@
         <v>298</v>
       </c>
       <c r="D512" s="11"/>
-      <c r="E512" s="12"/>
+      <c r="E512" s="13"/>
       <c r="F512" s="11" t="s">
         <v>949</v>
       </c>
@@ -26147,7 +26150,7 @@
       </c>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
-      <c r="E513" s="12"/>
+      <c r="E513" s="13"/>
       <c r="F513" s="15" t="s">
         <v>1066</v>
       </c>
@@ -26186,7 +26189,7 @@
       </c>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
-      <c r="E514" s="12"/>
+      <c r="E514" s="13"/>
       <c r="F514" s="15" t="s">
         <v>1138</v>
       </c>
@@ -26227,7 +26230,7 @@
         <v>878</v>
       </c>
       <c r="D515" s="11"/>
-      <c r="E515" s="12"/>
+      <c r="E515" s="13"/>
       <c r="F515" s="11" t="s">
         <v>983</v>
       </c>
@@ -26266,7 +26269,7 @@
       </c>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
-      <c r="E516" s="12"/>
+      <c r="E516" s="13"/>
       <c r="F516" s="11" t="s">
         <v>1006</v>
       </c>
@@ -26307,7 +26310,7 @@
         <v>298</v>
       </c>
       <c r="D517" s="11"/>
-      <c r="E517" s="12"/>
+      <c r="E517" s="13"/>
       <c r="F517" s="11" t="s">
         <v>315</v>
       </c>
@@ -26346,7 +26349,7 @@
       </c>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
-      <c r="E518" s="12"/>
+      <c r="E518" s="13"/>
       <c r="F518" s="11" t="s">
         <v>1143</v>
       </c>
@@ -26387,7 +26390,7 @@
         <v>298</v>
       </c>
       <c r="D519" s="11"/>
-      <c r="E519" s="12"/>
+      <c r="E519" s="13"/>
       <c r="F519" s="11" t="s">
         <v>949</v>
       </c>
@@ -26426,7 +26429,7 @@
       </c>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
-      <c r="E520" s="12"/>
+      <c r="E520" s="13"/>
       <c r="F520" s="11" t="s">
         <v>957</v>
       </c>
@@ -26463,7 +26466,7 @@
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
-      <c r="E521" s="12"/>
+      <c r="E521" s="13"/>
       <c r="F521" s="15" t="s">
         <v>213</v>
       </c>
@@ -26504,7 +26507,7 @@
         <v>1148</v>
       </c>
       <c r="D522" s="11"/>
-      <c r="E522" s="12"/>
+      <c r="E522" s="13"/>
       <c r="F522" s="11" t="s">
         <v>1149</v>
       </c>
@@ -26543,7 +26546,7 @@
       </c>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
-      <c r="E523" s="12"/>
+      <c r="E523" s="13"/>
       <c r="F523" s="11" t="s">
         <v>1151</v>
       </c>
@@ -26582,7 +26585,7 @@
       </c>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
-      <c r="E524" s="12"/>
+      <c r="E524" s="13"/>
       <c r="F524" s="11" t="s">
         <v>957</v>
       </c>
@@ -26621,7 +26624,7 @@
       </c>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
-      <c r="E525" s="12"/>
+      <c r="E525" s="13"/>
       <c r="F525" s="11" t="s">
         <v>825</v>
       </c>
@@ -26660,7 +26663,7 @@
       </c>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
-      <c r="E526" s="12"/>
+      <c r="E526" s="13"/>
       <c r="F526" s="15" t="s">
         <v>828</v>
       </c>
@@ -26701,7 +26704,7 @@
         <v>381</v>
       </c>
       <c r="D527" s="11"/>
-      <c r="E527" s="12"/>
+      <c r="E527" s="13"/>
       <c r="F527" s="11" t="s">
         <v>949</v>
       </c>
@@ -26740,7 +26743,7 @@
       </c>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
-      <c r="E528" s="12"/>
+      <c r="E528" s="13"/>
       <c r="F528" s="11" t="s">
         <v>44</v>
       </c>
@@ -26779,7 +26782,7 @@
       </c>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
-      <c r="E529" s="12"/>
+      <c r="E529" s="13"/>
       <c r="F529" s="11" t="s">
         <v>957</v>
       </c>
@@ -26818,7 +26821,7 @@
       </c>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
-      <c r="E530" s="12"/>
+      <c r="E530" s="13"/>
       <c r="F530" s="15" t="s">
         <v>957</v>
       </c>
@@ -26857,7 +26860,7 @@
       </c>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
-      <c r="E531" s="12"/>
+      <c r="E531" s="13"/>
       <c r="F531" s="11" t="s">
         <v>1066</v>
       </c>
@@ -26896,7 +26899,7 @@
       </c>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
-      <c r="E532" s="12"/>
+      <c r="E532" s="13"/>
       <c r="F532" s="11" t="s">
         <v>508</v>
       </c>
@@ -26935,7 +26938,7 @@
       </c>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
-      <c r="E533" s="12"/>
+      <c r="E533" s="13"/>
       <c r="F533" s="11" t="s">
         <v>1026</v>
       </c>
@@ -26976,7 +26979,7 @@
         <v>1164</v>
       </c>
       <c r="D534" s="11"/>
-      <c r="E534" s="12"/>
+      <c r="E534" s="13"/>
       <c r="F534" s="11" t="s">
         <v>1165</v>
       </c>
@@ -27015,7 +27018,7 @@
       </c>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
-      <c r="E535" s="12"/>
+      <c r="E535" s="13"/>
       <c r="F535" s="11" t="s">
         <v>825</v>
       </c>
@@ -27054,7 +27057,7 @@
       </c>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
-      <c r="E536" s="12"/>
+      <c r="E536" s="13"/>
       <c r="F536" s="11" t="s">
         <v>122</v>
       </c>
@@ -27093,7 +27096,7 @@
       </c>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
-      <c r="E537" s="12"/>
+      <c r="E537" s="13"/>
       <c r="F537" s="11" t="s">
         <v>81</v>
       </c>
@@ -27130,7 +27133,7 @@
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
-      <c r="E538" s="12"/>
+      <c r="E538" s="13"/>
       <c r="F538" s="11" t="s">
         <v>95</v>
       </c>
@@ -27169,7 +27172,7 @@
       </c>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
-      <c r="E539" s="12"/>
+      <c r="E539" s="13"/>
       <c r="F539" s="11" t="s">
         <v>1119</v>
       </c>
@@ -27208,7 +27211,7 @@
       </c>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
-      <c r="E540" s="12"/>
+      <c r="E540" s="13"/>
       <c r="F540" s="11" t="s">
         <v>957</v>
       </c>
@@ -27249,7 +27252,7 @@
         <v>1173</v>
       </c>
       <c r="D541" s="11"/>
-      <c r="E541" s="12"/>
+      <c r="E541" s="13"/>
       <c r="F541" s="11" t="s">
         <v>563</v>
       </c>
@@ -27286,7 +27289,7 @@
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
-      <c r="E542" s="12"/>
+      <c r="E542" s="13"/>
       <c r="F542" s="11" t="s">
         <v>1031</v>
       </c>
@@ -27327,7 +27330,7 @@
         <v>804</v>
       </c>
       <c r="D543" s="11"/>
-      <c r="E543" s="12"/>
+      <c r="E543" s="13"/>
       <c r="F543" s="15" t="s">
         <v>1176</v>
       </c>
@@ -27364,7 +27367,7 @@
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
-      <c r="E544" s="12"/>
+      <c r="E544" s="13"/>
       <c r="F544" s="11" t="s">
         <v>219</v>
       </c>
@@ -27405,7 +27408,7 @@
         <v>899</v>
       </c>
       <c r="D545" s="11"/>
-      <c r="E545" s="12"/>
+      <c r="E545" s="13"/>
       <c r="F545" s="11" t="s">
         <v>1179</v>
       </c>
@@ -27444,7 +27447,7 @@
       </c>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
-      <c r="E546" s="12"/>
+      <c r="E546" s="13"/>
       <c r="F546" s="11" t="s">
         <v>81</v>
       </c>
@@ -27485,7 +27488,7 @@
         <v>1182</v>
       </c>
       <c r="D547" s="11"/>
-      <c r="E547" s="12"/>
+      <c r="E547" s="13"/>
       <c r="F547" s="11" t="s">
         <v>968</v>
       </c>
@@ -27524,7 +27527,7 @@
       </c>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
-      <c r="E548" s="12"/>
+      <c r="E548" s="13"/>
       <c r="F548" s="15" t="s">
         <v>949</v>
       </c>
@@ -27565,7 +27568,7 @@
         <v>781</v>
       </c>
       <c r="D549" s="11"/>
-      <c r="E549" s="12"/>
+      <c r="E549" s="13"/>
       <c r="F549" s="11" t="s">
         <v>779</v>
       </c>
@@ -27606,7 +27609,7 @@
         <v>878</v>
       </c>
       <c r="D550" s="11"/>
-      <c r="E550" s="12"/>
+      <c r="E550" s="13"/>
       <c r="F550" s="11" t="s">
         <v>977</v>
       </c>
@@ -27645,7 +27648,7 @@
       </c>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
-      <c r="E551" s="12"/>
+      <c r="E551" s="13"/>
       <c r="F551" s="11" t="s">
         <v>957</v>
       </c>
@@ -27686,7 +27689,7 @@
         <v>1101</v>
       </c>
       <c r="D552" s="11"/>
-      <c r="E552" s="12"/>
+      <c r="E552" s="13"/>
       <c r="F552" s="11" t="s">
         <v>949</v>
       </c>
@@ -44516,21 +44519,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="36" width="35.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="36" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="28.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="17" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="36" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="36" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="36" width="52.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="36" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="52.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="8.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="6.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="37" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="36" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="36" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="37" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="36" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="36" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="36" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="37.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -60633,7 +60636,7 @@
     <col min="7" max="7" style="17" width="6.576428571428571" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="19" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="3.4335714285714283" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="24" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="17" width="15.290714285714287" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="17" width="12.290714285714287" customWidth="1" bestFit="1"/>
@@ -60669,7 +60672,7 @@
       <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="20" t="s">
